--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD355F8-6579-479B-9D0A-735B0ECE53BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="588">
   <si>
     <t>Aripiprazole</t>
   </si>
@@ -1748,12 +1747,48 @@
   </si>
   <si>
     <t>EPS, sedation, akathisia, injection site reactions, clinical stability</t>
+  </si>
+  <si>
+    <t>QUETIAZIC 300 XR Tab.</t>
+  </si>
+  <si>
+    <t>GAPTIN 100mg Cap</t>
+  </si>
+  <si>
+    <t>Gabapentin</t>
+  </si>
+  <si>
+    <t>30CAP</t>
+  </si>
+  <si>
+    <t>5–7 hours</t>
+  </si>
+  <si>
+    <t>Anticonvulsant / Neuropathic pain agent (GABA analog, though not acting directly on GABA receptors)</t>
+  </si>
+  <si>
+    <t>Dizziness, Somnolence (drowsiness), Fatigue, Ataxia (loss of coordination), Peripheral edema, Nystagmus, Weight gain, Headache</t>
+  </si>
+  <si>
+    <t>Antacids containing aluminum or magnesium reduce gabapentin absorption (separate dosing by 2 hours), Morphine and other opioids increase CNS depression (dizziness, sedation), Prolonged-release opioids (e.g., oxycodone, hydrocodone) have a higher risk of respiratory depression, Cimetidine may reduce renal clearance of gabapentin, Diuretics (e.g., hydrochlorothiazide) may increase gabapentin concentration.</t>
+  </si>
+  <si>
+    <t>Renal function tests (serum creatinine, eGFR) – Gabapentin is renally excreted; dose adjustment needed in renal impairment, Liver function tests (LFTs) – Rare hepatotoxicity; baseline and periodic monitoring in long-term use, Electrolytes – Occasionally monitored due to edema or fluid retention.</t>
+  </si>
+  <si>
+    <t>CNS depression (drowsiness, dizziness, impaired coordination) – especially when initiating or increasing dose, Mood changes (depression, anxiety, suicidal ideation) – per FDA black box warning for antiepileptics, Signs of hypersensitivity (rash, fever, lymphadenopathy), Peripheral edema – monitor for swelling in extremities, Respiratory depression – especially when combined with CNS depressants (opioids, benzodiazepines), Weight gain and appetite changes, Withdrawal symptoms (insomnia, nausea, headache, anxiety) – avoid abrupt discontinuation.</t>
+  </si>
+  <si>
+    <t>GAPTIN 300mg Cap</t>
+  </si>
+  <si>
+    <t>GAPTIN 400mg Cap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1803,22 +1838,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J166" totalsRowShown="0">
-  <autoFilter ref="A1:J166" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H166">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J170" totalsRowShown="0">
+  <autoFilter ref="A1:J170"/>
+  <sortState ref="A2:H166">
     <sortCondition ref="B1:B166"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="active"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="available"/>
-    <tableColumn id="8" xr3:uid="{7A29C427-D0DD-4221-9075-47EE8A522D08}" name="package"/>
-    <tableColumn id="11" xr3:uid="{EB0E6C8E-F397-4EEA-9DDE-A6B590D5D40E}" name="halfLife"/>
-    <tableColumn id="9" xr3:uid="{FB53DAAD-61C8-4870-BBFE-28D73CAD2DC8}" name="category"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="sideEffects"/>
-    <tableColumn id="7" xr3:uid="{486ADB49-A518-4A8C-BB05-CB9E139CFBA8}" name="interactions"/>
-    <tableColumn id="10" xr3:uid="{EA67CBB1-BE1D-42C1-85F4-71C6F6DF59FC}" name="important labs"/>
-    <tableColumn id="15" xr3:uid="{5D59DA10-1E42-4076-9734-038BC06E06F5}" name="monitor"/>
+    <tableColumn id="1" name="name"/>
+    <tableColumn id="2" name="active"/>
+    <tableColumn id="3" name="available"/>
+    <tableColumn id="8" name="package"/>
+    <tableColumn id="11" name="halfLife"/>
+    <tableColumn id="9" name="category"/>
+    <tableColumn id="4" name="sideEffects"/>
+    <tableColumn id="7" name="interactions"/>
+    <tableColumn id="10" name="important labs"/>
+    <tableColumn id="15" name="monitor"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2086,11 +2121,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J166"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="A168" sqref="A168:A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6337,7 +6372,7 @@
         <v>43</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D133" t="s">
         <v>212</v>
@@ -6363,7 +6398,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>159</v>
+        <v>576</v>
       </c>
       <c r="B134" t="s">
         <v>43</v>
@@ -6395,7 +6430,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B135" t="s">
         <v>43</v>
@@ -6427,7 +6462,7 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B136" t="s">
         <v>43</v>
@@ -6451,7 +6486,7 @@
         <v>415</v>
       </c>
       <c r="I136" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="J136" t="s">
         <v>563</v>
@@ -6459,7 +6494,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B137" t="s">
         <v>43</v>
@@ -6491,7 +6526,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B138" t="s">
         <v>43</v>
@@ -6523,10 +6558,10 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="B139" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -6535,27 +6570,27 @@
         <v>212</v>
       </c>
       <c r="E139" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F139" t="s">
         <v>386</v>
       </c>
       <c r="G139" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H139" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="I139" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="J139" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B140" t="s">
         <v>17</v>
@@ -6564,7 +6599,7 @@
         <v>1</v>
       </c>
       <c r="D140" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E140" t="s">
         <v>508</v>
@@ -6587,7 +6622,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B141" t="s">
         <v>17</v>
@@ -6619,7 +6654,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B142" t="s">
         <v>17</v>
@@ -6628,7 +6663,7 @@
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E142" t="s">
         <v>508</v>
@@ -6651,7 +6686,7 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B143" t="s">
         <v>17</v>
@@ -6683,39 +6718,39 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="B144" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E144" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F144" t="s">
-        <v>317</v>
+        <v>386</v>
       </c>
       <c r="G144" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H144" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="I144" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J144" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B145" t="s">
         <v>34</v>
@@ -6724,7 +6759,7 @@
         <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E145" t="s">
         <v>509</v>
@@ -6747,39 +6782,39 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="B146" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E146" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F146" t="s">
-        <v>423</v>
+        <v>317</v>
       </c>
       <c r="G146" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H146" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="I146" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="J146" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B147" t="s">
         <v>26</v>
@@ -6788,7 +6823,7 @@
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E147" t="s">
         <v>510</v>
@@ -6811,39 +6846,39 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="B148" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E148" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="F148" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="G148" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H148" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I148" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J148" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B149" t="s">
         <v>48</v>
@@ -6875,16 +6910,16 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>244</v>
+        <v>180</v>
       </c>
       <c r="B150" t="s">
         <v>48</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D150" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E150" t="s">
         <v>503</v>
@@ -6907,7 +6942,7 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B151" t="s">
         <v>48</v>
@@ -6916,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E151" t="s">
         <v>503</v>
@@ -6939,39 +6974,39 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="B152" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E152" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F152" t="s">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="G152" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H152" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="I152" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="J152" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B153" t="s">
         <v>49</v>
@@ -7003,45 +7038,45 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B154" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E154" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F154" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G154" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H154" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I154" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="J154" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B155" t="s">
         <v>47</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D155" t="s">
         <v>212</v>
@@ -7067,71 +7102,71 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B156" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D156" t="s">
         <v>212</v>
       </c>
       <c r="E156" t="s">
-        <v>484</v>
+        <v>512</v>
       </c>
       <c r="F156" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G156" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H156" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="I156" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="J156" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="B157" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E157" t="s">
-        <v>513</v>
+        <v>484</v>
       </c>
       <c r="F157" t="s">
-        <v>327</v>
+        <v>438</v>
       </c>
       <c r="G157" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H157" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="I157" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J157" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B158" t="s">
         <v>28</v>
@@ -7155,7 +7190,7 @@
         <v>443</v>
       </c>
       <c r="I158" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J158" t="s">
         <v>571</v>
@@ -7163,7 +7198,7 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>208</v>
+        <v>124</v>
       </c>
       <c r="B159" t="s">
         <v>28</v>
@@ -7172,7 +7207,7 @@
         <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E159" t="s">
         <v>513</v>
@@ -7187,7 +7222,7 @@
         <v>443</v>
       </c>
       <c r="I159" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J159" t="s">
         <v>571</v>
@@ -7195,45 +7230,45 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="B160" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E160" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F160" t="s">
-        <v>447</v>
+        <v>327</v>
       </c>
       <c r="G160" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="H160" t="s">
         <v>443</v>
       </c>
       <c r="I160" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="J160" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>243</v>
+        <v>188</v>
       </c>
       <c r="B161" t="s">
         <v>52</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D161" t="s">
         <v>212</v>
@@ -7259,48 +7294,48 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>116</v>
+        <v>243</v>
       </c>
       <c r="B162" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E162" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F162" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G162" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H162" t="s">
         <v>443</v>
       </c>
       <c r="I162" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="J162" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B163" t="s">
         <v>55</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E163" t="s">
         <v>515</v>
@@ -7323,77 +7358,77 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="B164" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C164">
         <v>0</v>
       </c>
       <c r="D164" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E164" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F164" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G164" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H164" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="I164" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="J164" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B165" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D165" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E165" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F165" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G165" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H165" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="I165" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="J165" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>209</v>
+        <v>59</v>
       </c>
       <c r="B166" t="s">
         <v>1</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166" t="s">
         <v>213</v>
@@ -7405,16 +7440,144 @@
         <v>457</v>
       </c>
       <c r="G166" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H166" t="s">
         <v>459</v>
       </c>
       <c r="I166" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="J166" t="s">
         <v>575</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>209</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167" t="s">
+        <v>213</v>
+      </c>
+      <c r="E167" t="s">
+        <v>516</v>
+      </c>
+      <c r="F167" t="s">
+        <v>457</v>
+      </c>
+      <c r="G167" t="s">
+        <v>461</v>
+      </c>
+      <c r="H167" t="s">
+        <v>459</v>
+      </c>
+      <c r="I167" t="s">
+        <v>462</v>
+      </c>
+      <c r="J167" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>577</v>
+      </c>
+      <c r="B168" t="s">
+        <v>578</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168" t="s">
+        <v>579</v>
+      </c>
+      <c r="E168" t="s">
+        <v>580</v>
+      </c>
+      <c r="F168" t="s">
+        <v>581</v>
+      </c>
+      <c r="G168" t="s">
+        <v>582</v>
+      </c>
+      <c r="H168" t="s">
+        <v>583</v>
+      </c>
+      <c r="I168" t="s">
+        <v>584</v>
+      </c>
+      <c r="J168" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>586</v>
+      </c>
+      <c r="B169" t="s">
+        <v>578</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169" t="s">
+        <v>579</v>
+      </c>
+      <c r="E169" t="s">
+        <v>580</v>
+      </c>
+      <c r="F169" t="s">
+        <v>581</v>
+      </c>
+      <c r="G169" t="s">
+        <v>582</v>
+      </c>
+      <c r="H169" t="s">
+        <v>583</v>
+      </c>
+      <c r="I169" t="s">
+        <v>584</v>
+      </c>
+      <c r="J169" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>587</v>
+      </c>
+      <c r="B170" t="s">
+        <v>578</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170" t="s">
+        <v>579</v>
+      </c>
+      <c r="E170" t="s">
+        <v>580</v>
+      </c>
+      <c r="F170" t="s">
+        <v>581</v>
+      </c>
+      <c r="G170" t="s">
+        <v>582</v>
+      </c>
+      <c r="H170" t="s">
+        <v>583</v>
+      </c>
+      <c r="I170" t="s">
+        <v>584</v>
+      </c>
+      <c r="J170" t="s">
+        <v>585</v>
       </c>
     </row>
   </sheetData>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="594">
   <si>
     <t>Aripiprazole</t>
   </si>
@@ -1783,6 +1783,24 @@
   </si>
   <si>
     <t>GAPTIN 400mg Cap</t>
+  </si>
+  <si>
+    <t>RISPERDAL 2mg Tab</t>
+  </si>
+  <si>
+    <t>RISPERDAL 4mg Tab</t>
+  </si>
+  <si>
+    <t>20TAB</t>
+  </si>
+  <si>
+    <t>RISPERDAL 1mg/ml Syrup</t>
+  </si>
+  <si>
+    <t>30 ML</t>
+  </si>
+  <si>
+    <t>RISPERDAL CONSTA</t>
   </si>
 </sst>
 </file>
@@ -1838,8 +1856,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J170" totalsRowShown="0">
-  <autoFilter ref="A1:J170"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J174" totalsRowShown="0">
+  <autoFilter ref="A1:J174"/>
   <sortState ref="A2:H166">
     <sortCondition ref="B1:B166"/>
   </sortState>
@@ -2122,10 +2140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J170"/>
+  <dimension ref="A1:J174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168:A170"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6750,234 +6768,234 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>136</v>
+        <v>588</v>
       </c>
       <c r="B145" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>216</v>
+        <v>590</v>
       </c>
       <c r="E145" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F145" t="s">
-        <v>317</v>
+        <v>386</v>
       </c>
       <c r="G145" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H145" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="I145" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J145" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>139</v>
+        <v>589</v>
       </c>
       <c r="B146" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>212</v>
+        <v>590</v>
       </c>
       <c r="E146" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F146" t="s">
-        <v>317</v>
+        <v>386</v>
       </c>
       <c r="G146" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H146" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="I146" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J146" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>119</v>
+        <v>591</v>
       </c>
       <c r="B147" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>217</v>
+        <v>592</v>
       </c>
       <c r="E147" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F147" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="G147" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="H147" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="I147" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="J147" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>120</v>
+        <v>593</v>
       </c>
       <c r="B148" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D148" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="E148" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F148" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="G148" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="H148" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="I148" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="J148" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="B149" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E149" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="F149" t="s">
-        <v>390</v>
+        <v>317</v>
       </c>
       <c r="G149" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="H149" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="I149" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="J149" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="B150" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E150" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="F150" t="s">
-        <v>390</v>
+        <v>317</v>
       </c>
       <c r="G150" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="H150" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="I150" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="J150" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>244</v>
+        <v>119</v>
       </c>
       <c r="B151" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E151" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="F151" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="G151" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H151" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I151" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J151" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>245</v>
+        <v>120</v>
       </c>
       <c r="B152" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -6986,94 +7004,94 @@
         <v>214</v>
       </c>
       <c r="E152" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="F152" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="G152" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H152" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I152" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J152" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B153" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D153" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E153" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F153" t="s">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="G153" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H153" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="I153" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="J153" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B154" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D154" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E154" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F154" t="s">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="G154" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H154" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="I154" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="J154" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>175</v>
+        <v>244</v>
       </c>
       <c r="B155" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -7082,501 +7100,629 @@
         <v>212</v>
       </c>
       <c r="E155" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="F155" t="s">
-        <v>434</v>
+        <v>390</v>
       </c>
       <c r="G155" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="H155" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="I155" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="J155" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>176</v>
+        <v>245</v>
       </c>
       <c r="B156" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D156" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E156" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="F156" t="s">
-        <v>434</v>
+        <v>390</v>
       </c>
       <c r="G156" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="H156" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="I156" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="J156" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B157" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E157" t="s">
-        <v>484</v>
+        <v>511</v>
       </c>
       <c r="F157" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G157" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="H157" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="I157" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="J157" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="B158" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E158" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F158" t="s">
-        <v>327</v>
+        <v>430</v>
       </c>
       <c r="G158" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="H158" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="I158" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="J158" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="B159" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E159" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F159" t="s">
-        <v>327</v>
+        <v>434</v>
       </c>
       <c r="G159" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="H159" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="I159" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="J159" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="B160" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D160" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E160" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F160" t="s">
-        <v>327</v>
+        <v>434</v>
       </c>
       <c r="G160" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="H160" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="I160" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="J160" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B161" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161" t="s">
         <v>212</v>
       </c>
       <c r="E161" t="s">
-        <v>514</v>
+        <v>484</v>
       </c>
       <c r="F161" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="G161" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="H161" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="I161" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="J161" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>243</v>
+        <v>123</v>
       </c>
       <c r="B162" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E162" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F162" t="s">
-        <v>447</v>
+        <v>327</v>
       </c>
       <c r="G162" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="H162" t="s">
         <v>443</v>
       </c>
       <c r="I162" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J162" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B163" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E163" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F163" t="s">
-        <v>450</v>
+        <v>327</v>
       </c>
       <c r="G163" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="H163" t="s">
         <v>443</v>
       </c>
       <c r="I163" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="J163" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>117</v>
+        <v>208</v>
       </c>
       <c r="B164" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D164" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E164" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F164" t="s">
-        <v>450</v>
+        <v>327</v>
       </c>
       <c r="G164" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="H164" t="s">
         <v>443</v>
       </c>
       <c r="I164" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="J164" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="B165" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C165">
         <v>0</v>
       </c>
       <c r="D165" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E165" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F165" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="G165" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="H165" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="I165" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="J165" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>59</v>
+        <v>243</v>
       </c>
       <c r="B166" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E166" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F166" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="G166" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="H166" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="I166" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="J166" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>209</v>
+        <v>116</v>
       </c>
       <c r="B167" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D167" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E167" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F167" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="G167" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="H167" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="I167" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="J167" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>577</v>
+        <v>117</v>
       </c>
       <c r="B168" t="s">
-        <v>578</v>
+        <v>55</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D168" t="s">
-        <v>579</v>
+        <v>215</v>
       </c>
       <c r="E168" t="s">
-        <v>580</v>
+        <v>515</v>
       </c>
       <c r="F168" t="s">
-        <v>581</v>
+        <v>450</v>
       </c>
       <c r="G168" t="s">
-        <v>582</v>
+        <v>451</v>
       </c>
       <c r="H168" t="s">
-        <v>583</v>
+        <v>443</v>
       </c>
       <c r="I168" t="s">
-        <v>584</v>
+        <v>452</v>
       </c>
       <c r="J168" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>586</v>
+        <v>77</v>
       </c>
       <c r="B169" t="s">
-        <v>578</v>
+        <v>9</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D169" t="s">
-        <v>579</v>
+        <v>214</v>
       </c>
       <c r="E169" t="s">
-        <v>580</v>
+        <v>513</v>
       </c>
       <c r="F169" t="s">
-        <v>581</v>
+        <v>453</v>
       </c>
       <c r="G169" t="s">
-        <v>582</v>
+        <v>454</v>
       </c>
       <c r="H169" t="s">
-        <v>583</v>
+        <v>455</v>
       </c>
       <c r="I169" t="s">
-        <v>584</v>
+        <v>456</v>
       </c>
       <c r="J169" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>59</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170" t="s">
+        <v>213</v>
+      </c>
+      <c r="E170" t="s">
+        <v>516</v>
+      </c>
+      <c r="F170" t="s">
+        <v>457</v>
+      </c>
+      <c r="G170" t="s">
+        <v>458</v>
+      </c>
+      <c r="H170" t="s">
+        <v>459</v>
+      </c>
+      <c r="I170" t="s">
+        <v>460</v>
+      </c>
+      <c r="J170" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>209</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171" t="s">
+        <v>213</v>
+      </c>
+      <c r="E171" t="s">
+        <v>516</v>
+      </c>
+      <c r="F171" t="s">
+        <v>457</v>
+      </c>
+      <c r="G171" t="s">
+        <v>461</v>
+      </c>
+      <c r="H171" t="s">
+        <v>459</v>
+      </c>
+      <c r="I171" t="s">
+        <v>462</v>
+      </c>
+      <c r="J171" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>577</v>
+      </c>
+      <c r="B172" t="s">
+        <v>578</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172" t="s">
+        <v>579</v>
+      </c>
+      <c r="E172" t="s">
+        <v>580</v>
+      </c>
+      <c r="F172" t="s">
+        <v>581</v>
+      </c>
+      <c r="G172" t="s">
+        <v>582</v>
+      </c>
+      <c r="H172" t="s">
+        <v>583</v>
+      </c>
+      <c r="I172" t="s">
+        <v>584</v>
+      </c>
+      <c r="J172" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>586</v>
+      </c>
+      <c r="B173" t="s">
+        <v>578</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173" t="s">
+        <v>579</v>
+      </c>
+      <c r="E173" t="s">
+        <v>580</v>
+      </c>
+      <c r="F173" t="s">
+        <v>581</v>
+      </c>
+      <c r="G173" t="s">
+        <v>582</v>
+      </c>
+      <c r="H173" t="s">
+        <v>583</v>
+      </c>
+      <c r="I173" t="s">
+        <v>584</v>
+      </c>
+      <c r="J173" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>587</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B174" t="s">
         <v>578</v>
       </c>
-      <c r="C170">
-        <v>1</v>
-      </c>
-      <c r="D170" t="s">
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174" t="s">
         <v>579</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E174" t="s">
         <v>580</v>
       </c>
-      <c r="F170" t="s">
+      <c r="F174" t="s">
         <v>581</v>
       </c>
-      <c r="G170" t="s">
+      <c r="G174" t="s">
         <v>582</v>
       </c>
-      <c r="H170" t="s">
+      <c r="H174" t="s">
         <v>583</v>
       </c>
-      <c r="I170" t="s">
+      <c r="I174" t="s">
         <v>584</v>
       </c>
-      <c r="J170" t="s">
+      <c r="J174" t="s">
         <v>585</v>
       </c>
     </row>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="608">
   <si>
     <t>Aripiprazole</t>
   </si>
@@ -243,9 +243,6 @@
     <t>INVEGA 3mg Tab.</t>
   </si>
   <si>
-    <t>INVEGA 6mg Tab.</t>
-  </si>
-  <si>
     <t>APETRYL 0.5mg Tab.</t>
   </si>
   <si>
@@ -537,9 +534,6 @@
     <t>SEROXAT CR 25mg Tab.</t>
   </si>
   <si>
-    <t>SINEMET 25/250mg Tab.</t>
-  </si>
-  <si>
     <t>SOLIAN 200mg Tab.</t>
   </si>
   <si>
@@ -582,9 +576,6 @@
     <t>TUDASIDONE 80mg Tab.</t>
   </si>
   <si>
-    <t>VENLATROPE 50mg Tab.</t>
-  </si>
-  <si>
     <t>VILAZOVER 40mg Tab.</t>
   </si>
   <si>
@@ -621,18 +612,9 @@
     <t>WELLBUTRIN SR 150mg Tab.</t>
   </si>
   <si>
-    <t>PRISTIQ 50MG Tab</t>
-  </si>
-  <si>
     <t>DEPREBAN 20mg Cap.</t>
   </si>
   <si>
-    <t>LITHIOMOD 400MG Tab</t>
-  </si>
-  <si>
-    <t>PRIANIL 400mg Tab.</t>
-  </si>
-  <si>
     <t>Lithium</t>
   </si>
   <si>
@@ -645,9 +627,6 @@
     <t>ZYPREXA Tab.</t>
   </si>
   <si>
-    <t>VENLLAMASH 75mg Cap.</t>
-  </si>
-  <si>
     <t>CLOPIXOL ACUPHASE 100MG/ml Amp.</t>
   </si>
   <si>
@@ -1446,9 +1425,6 @@
     <t>91 hours</t>
   </si>
   <si>
-    <t>10-14 hours</t>
-  </si>
-  <si>
     <t>1-3 hours</t>
   </si>
   <si>
@@ -1485,9 +1461,6 @@
     <t>1-3 days</t>
   </si>
   <si>
-    <t>30 hours</t>
-  </si>
-  <si>
     <t>15 hours</t>
   </si>
   <si>
@@ -1497,9 +1470,6 @@
     <t>14-18 hours</t>
   </si>
   <si>
-    <t>18-30 hours</t>
-  </si>
-  <si>
     <t>18 hours</t>
   </si>
   <si>
@@ -1569,9 +1539,6 @@
     <t>66 hours</t>
   </si>
   <si>
-    <t>3-4 weeks</t>
-  </si>
-  <si>
     <t>monitor</t>
   </si>
   <si>
@@ -1801,16 +1768,97 @@
   </si>
   <si>
     <t>RISPERDAL CONSTA</t>
+  </si>
+  <si>
+    <t>SINEMET CR 25/250mg  Tab.</t>
+  </si>
+  <si>
+    <t>VENLLAMASH ER 75mg Cap.</t>
+  </si>
+  <si>
+    <t>INVEGA ER 6mg Tab.</t>
+  </si>
+  <si>
+    <t>PRIANIL  CR 400mg Tab.</t>
+  </si>
+  <si>
+    <t>LITHIOMOD PR 400MG Tab</t>
+  </si>
+  <si>
+    <t>PRISTIQ ER 50MG Tab</t>
+  </si>
+  <si>
+    <t>VENLATROPE ER 50mg Tab.</t>
+  </si>
+  <si>
+    <t>24-36 hours</t>
+  </si>
+  <si>
+    <t>3 weeks</t>
+  </si>
+  <si>
+    <t>~46 days</t>
+  </si>
+  <si>
+    <t>~19 days</t>
+  </si>
+  <si>
+    <t>25–49 days</t>
+  </si>
+  <si>
+    <t>~3-6 months</t>
+  </si>
+  <si>
+    <t>3–6 days</t>
+  </si>
+  <si>
+    <t>TEGRETOL 200mg Tab</t>
+  </si>
+  <si>
+    <t>TEGRETOL CR 400mg Tab</t>
+  </si>
+  <si>
+    <t>TEGRETOL CR 200mg Tab</t>
+  </si>
+  <si>
+    <t>CARBAMAZEPINE</t>
+  </si>
+  <si>
+    <t>First-Generation Antiepileptic Drug (AED)</t>
+  </si>
+  <si>
+    <t>"Dizziness", "Drowsiness (somnolence)", "Nausea and Vomiting", "Diplopia (double vision)", "Blurred vision", "Ataxia (unsteady gait)", "Headache"</t>
+  </si>
+  <si>
+    <t>"DOACs (apixaban, rivaroxaban)", "statins", "warfarin", "many antidepressants", "birth control pills (can cause failure)", "(auto-induction), meaning the dose often needs to be increased after the first few weeks of treatment.", "Drugs that increase its levels: macrolide antibiotics (erythromycin), azole antifungals (fluconazole)"</t>
+  </si>
+  <si>
+    <t>"CBC (for blood cell counts)", "Liver Function Tests (LFTs)", "Sodium Level (for hyponatremia)", "Carbamazepine Trough Level (therapeutic range 4-12 mcg/mL)", "Pregnancy Test (teratogenic)"</t>
+  </si>
+  <si>
+    <t>"Initial: 25-65 hours", "With repeated doses: 12-17 hours (due to auto-induction)"</t>
+  </si>
+  <si>
+    <t>Seizure frequency, duration, and intensity , "Reduction in trigeminal neuralgia pain episodes" , "Mood stability in bipolar disorder", "Visual disturbances (blurred vision, double vision)", "Signs of hyponatremia: headache, confusion, lethargy, nausea" , "Fever, sore throat, mouth ulcers (signs of agranulocytosis)", "Skin rash (potential sign of serious reaction like SJS/TEN)", "Easy bruising or bleeding (sign of aplastic anemia)", "Jaundice (yellow skin/eyes), dark urine (sign of hepatotoxicity)"</t>
+  </si>
+  <si>
+    <t>20 hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1836,8 +1884,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1856,10 +1905,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J174" totalsRowShown="0">
-  <autoFilter ref="A1:J174"/>
-  <sortState ref="A2:H166">
-    <sortCondition ref="B1:B166"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J177" totalsRowShown="0">
+  <autoFilter ref="A1:J177"/>
+  <sortState ref="A2:J174">
+    <sortCondition ref="B1:B174"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" name="name"/>
@@ -2140,10 +2189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J174"/>
+  <dimension ref="A1:J177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="E174" sqref="E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2160,103 +2209,103 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" t="s">
         <v>248</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I1" t="s">
         <v>249</v>
       </c>
-      <c r="C1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H1" t="s">
-        <v>254</v>
-      </c>
-      <c r="I1" t="s">
-        <v>256</v>
-      </c>
       <c r="J1" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E2" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="H2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="I2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="J2" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="E3" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="H3" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="I3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="J3" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -2265,158 +2314,158 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E4" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G4" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="H4" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="I4" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="J4" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E5" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="F5" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G5" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H5" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="J5" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="E6" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="F6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G6" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H6" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I6" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="J6" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="F7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="J7" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="E8" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="F8" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G8" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H8" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I8" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="J8" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
@@ -2425,30 +2474,30 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="E9" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F9" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G9" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H9" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="I9" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="J9" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B10" t="s">
         <v>42</v>
@@ -2457,30 +2506,30 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E10" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F10" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G10" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H10" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="I10" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="J10" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -2489,30 +2538,30 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E11" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="F11" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G11" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H11" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="I11" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="J11" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -2521,30 +2570,30 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E12" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="F12" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G12" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="H12" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="I12" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="J12" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -2553,30 +2602,30 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E13" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="F13" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G13" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H13" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="I13" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="J13" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -2585,30 +2634,30 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E14" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="F14" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H14" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="I14" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="J14" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s">
         <v>50</v>
@@ -2617,30 +2666,30 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E15" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F15" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G15" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="H15" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="I15" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="J15" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
@@ -2649,30 +2698,30 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E16" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F16" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G16" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="H16" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="I16" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="J16" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -2681,62 +2730,62 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="E17" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="F17" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G17" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H17" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I17" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J17" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="E18" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="F18" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G18" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H18" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I18" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J18" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
@@ -2745,62 +2794,62 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E19" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="F19" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G19" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H19" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I19" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J19" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>214</v>
-      </c>
-      <c r="E20" t="s">
-        <v>468</v>
+        <v>216</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>592</v>
       </c>
       <c r="F20" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G20" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H20" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I20" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J20" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
@@ -2809,30 +2858,30 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>214</v>
-      </c>
-      <c r="E21" t="s">
-        <v>468</v>
+        <v>216</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>592</v>
       </c>
       <c r="F21" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G21" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H21" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I21" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J21" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
@@ -2841,30 +2890,30 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E22" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="F22" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G22" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H22" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I22" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J22" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
@@ -2873,30 +2922,30 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E23" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="F23" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G23" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H23" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I23" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J23" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
@@ -2905,30 +2954,30 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E24" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="F24" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G24" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H24" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I24" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J24" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
@@ -2937,30 +2986,30 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E25" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F25" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G25" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="H25" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I25" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="J25" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -2969,25 +3018,25 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E26" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="F26" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G26" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="H26" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="I26" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J26" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -3001,30 +3050,30 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E27" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="F27" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G27" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="H27" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="I27" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J27" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -3033,25 +3082,25 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E28" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="F28" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G28" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="H28" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="I28" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J28" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -3065,30 +3114,30 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E29" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F29" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G29" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="H29" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="I29" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="J29" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -3097,30 +3146,30 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E30" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F30" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G30" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="H30" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="I30" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="J30" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
         <v>21</v>
@@ -3129,30 +3178,30 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E31" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F31" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G31" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="H31" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="I31" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="J31" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B32" t="s">
         <v>21</v>
@@ -3161,30 +3210,30 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E32" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F32" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G32" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="H32" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="I32" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="J32" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B33" t="s">
         <v>21</v>
@@ -3193,62 +3242,62 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E33" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F33" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G33" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="H33" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="I33" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="J33" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B34" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E34" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F34" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G34" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="H34" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="I34" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="J34" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
@@ -3257,30 +3306,30 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E35" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F35" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G35" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H35" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="I35" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="J35" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -3289,30 +3338,30 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E36" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F36" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G36" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="H36" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="I36" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J36" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
@@ -3321,94 +3370,94 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>216</v>
-      </c>
-      <c r="E37" t="s">
-        <v>474</v>
+        <v>209</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="F37" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G37" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="H37" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="I37" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J37" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B38" t="s">
         <v>53</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>212</v>
-      </c>
-      <c r="E38" t="s">
-        <v>475</v>
+        <v>205</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>493</v>
       </c>
       <c r="F38" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="G38" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H38" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="I38" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="J38" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B39" t="s">
         <v>53</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>212</v>
-      </c>
-      <c r="E39" t="s">
-        <v>475</v>
+        <v>205</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>493</v>
       </c>
       <c r="F39" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="G39" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H39" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="I39" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="J39" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>172</v>
+        <v>583</v>
       </c>
       <c r="B40" t="s">
         <v>46</v>
@@ -3417,30 +3466,30 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E40" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F40" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G40" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="H40" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="I40" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="J40" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B41" t="s">
         <v>45</v>
@@ -3449,30 +3498,30 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E41" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F41" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G41" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="H41" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="I41" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J41" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B42" t="s">
         <v>45</v>
@@ -3481,30 +3530,30 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E42" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F42" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G42" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="H42" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="I42" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J42" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B43" t="s">
         <v>45</v>
@@ -3513,30 +3562,30 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E43" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F43" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G43" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="H43" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="I43" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J43" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
@@ -3545,30 +3594,30 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E44" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F44" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G44" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="H44" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="I44" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J44" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B45" t="s">
         <v>33</v>
@@ -3577,30 +3626,30 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E45" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F45" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G45" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="H45" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="I45" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="J45" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B46" t="s">
         <v>38</v>
@@ -3609,30 +3658,30 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E46" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F46" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G46" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="H46" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I46" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="J46" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B47" t="s">
         <v>25</v>
@@ -3641,30 +3690,30 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E47" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F47" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G47" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="H47" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="I47" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="J47" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B48" t="s">
         <v>25</v>
@@ -3673,30 +3722,30 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E48" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F48" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G48" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="H48" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="I48" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="J48" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
@@ -3705,30 +3754,30 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E49" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F49" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G49" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="H49" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="I49" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="J49" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
@@ -3737,62 +3786,62 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E50" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F50" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G50" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="H50" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="I50" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="J50" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="E51" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="F51" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G51" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="H51" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="I51" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="J51" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -3801,62 +3850,62 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E52" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="F52" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G52" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="H52" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="I52" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="J52" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>210</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E53" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="F53" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G53" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="H53" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="I53" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="J53" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>211</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
@@ -3865,30 +3914,30 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E54" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="F54" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G54" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="H54" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="I54" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="J54" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B55" t="s">
         <v>24</v>
@@ -3897,30 +3946,30 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E55" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="F55" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G55" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H55" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="I55" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="J55" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B56" t="s">
         <v>24</v>
@@ -3929,30 +3978,30 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E56" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="F56" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G56" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H56" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="I56" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="J56" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B57" t="s">
         <v>24</v>
@@ -3961,30 +4010,30 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E57" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="F57" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G57" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H57" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="I57" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="J57" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B58" t="s">
         <v>24</v>
@@ -3993,94 +4042,94 @@
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E58" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="F58" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G58" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H58" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="I58" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="J58" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>187</v>
+        <v>588</v>
       </c>
       <c r="B59" t="s">
         <v>51</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E59" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F59" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G59" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="H59" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="I59" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="J59" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>200</v>
+        <v>589</v>
       </c>
       <c r="B60" t="s">
         <v>51</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E60" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F60" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G60" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="H60" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="I60" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="J60" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B61" t="s">
         <v>56</v>
@@ -4089,30 +4138,30 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E61" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="F61" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G61" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="H61" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I61" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="J61" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B62" t="s">
         <v>18</v>
@@ -4121,30 +4170,30 @@
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E62" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F62" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G62" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="H62" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="I62" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="J62" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B63" t="s">
         <v>18</v>
@@ -4153,158 +4202,158 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E63" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F63" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G63" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="H63" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="I63" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="J63" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="s">
         <v>217</v>
       </c>
       <c r="E64" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="F64" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G64" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="H64" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="I64" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="J64" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>224</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="s">
         <v>217</v>
       </c>
       <c r="E65" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="F65" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G65" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="H65" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="I65" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="J65" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>230</v>
+        <v>71</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="E66" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="F66" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G66" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="H66" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="I66" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="J66" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>231</v>
+        <v>72</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="E67" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="F67" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G67" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="H67" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="I67" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="J67" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B68" t="s">
         <v>23</v>
@@ -4313,62 +4362,62 @@
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E68" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F68" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G68" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H68" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="I68" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="J68" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="B69" t="s">
         <v>41</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E69" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F69" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G69" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="H69" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="I69" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="J69" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="B70" t="s">
         <v>41</v>
@@ -4377,57 +4426,57 @@
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="E70" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F70" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G70" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="H70" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="I70" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="J70" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B71" t="s">
         <v>41</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E71" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F71" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G71" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="H71" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="I71" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="J71" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -4441,30 +4490,30 @@
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>213</v>
-      </c>
-      <c r="E72" t="s">
-        <v>488</v>
+        <v>206</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>593</v>
       </c>
       <c r="F72" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G72" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="H72" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="I72" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="J72" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B73" t="s">
         <v>30</v>
@@ -4473,30 +4522,30 @@
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E73" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="F73" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G73" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="H73" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="I73" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="J73" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B74" t="s">
         <v>30</v>
@@ -4505,158 +4554,158 @@
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E74" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="F74" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G74" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="H74" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="I74" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="J74" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>61</v>
+        <v>566</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>567</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>235</v>
+        <v>568</v>
       </c>
       <c r="E75" t="s">
-        <v>490</v>
+        <v>569</v>
       </c>
       <c r="F75" t="s">
-        <v>352</v>
+        <v>570</v>
       </c>
       <c r="G75" t="s">
-        <v>353</v>
+        <v>571</v>
       </c>
       <c r="H75" t="s">
-        <v>354</v>
+        <v>572</v>
       </c>
       <c r="I75" t="s">
-        <v>316</v>
+        <v>573</v>
       </c>
       <c r="J75" t="s">
-        <v>546</v>
+        <v>574</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>62</v>
+        <v>575</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>567</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>235</v>
+        <v>568</v>
       </c>
       <c r="E76" t="s">
-        <v>490</v>
+        <v>569</v>
       </c>
       <c r="F76" t="s">
-        <v>352</v>
+        <v>570</v>
       </c>
       <c r="G76" t="s">
-        <v>353</v>
+        <v>571</v>
       </c>
       <c r="H76" t="s">
-        <v>354</v>
+        <v>572</v>
       </c>
       <c r="I76" t="s">
-        <v>316</v>
+        <v>573</v>
       </c>
       <c r="J76" t="s">
-        <v>546</v>
+        <v>574</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>63</v>
+        <v>576</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>567</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>236</v>
+        <v>568</v>
       </c>
       <c r="E77" t="s">
-        <v>490</v>
+        <v>569</v>
       </c>
       <c r="F77" t="s">
-        <v>352</v>
+        <v>570</v>
       </c>
       <c r="G77" t="s">
-        <v>353</v>
+        <v>571</v>
       </c>
       <c r="H77" t="s">
-        <v>354</v>
+        <v>572</v>
       </c>
       <c r="I77" t="s">
-        <v>316</v>
+        <v>573</v>
       </c>
       <c r="J77" t="s">
-        <v>546</v>
+        <v>574</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>214</v>
-      </c>
-      <c r="E78" t="s">
-        <v>490</v>
+        <v>228</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>591</v>
       </c>
       <c r="F78" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G78" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="H78" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="I78" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="J78" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
@@ -4665,862 +4714,862 @@
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E79" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="F79" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G79" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="H79" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="I79" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="J79" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B80" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E80" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F80" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="G80" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="H80" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="I80" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="J80" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="B81" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="E81" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F81" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="G81" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="H81" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="I81" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="J81" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>212</v>
-      </c>
-      <c r="E82" t="s">
-        <v>491</v>
+        <v>228</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>591</v>
       </c>
       <c r="F82" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="G82" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="H82" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="I82" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="J82" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="B83" t="s">
-        <v>204</v>
+        <v>32</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E83" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="F83" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="G83" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="H83" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="I83" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="J83" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="B84" t="s">
-        <v>204</v>
+        <v>32</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E84" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="F84" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="G84" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="H84" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="I84" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="J84" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B85" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E85" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="F85" t="s">
-        <v>269</v>
+        <v>324</v>
       </c>
       <c r="G85" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="H85" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="I85" t="s">
-        <v>281</v>
+        <v>350</v>
       </c>
       <c r="J85" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>126</v>
+        <v>587</v>
       </c>
       <c r="B86" t="s">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>212</v>
-      </c>
-      <c r="E86" t="s">
-        <v>493</v>
+        <v>205</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>590</v>
       </c>
       <c r="F86" t="s">
-        <v>269</v>
+        <v>351</v>
       </c>
       <c r="G86" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="H86" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="I86" t="s">
-        <v>281</v>
+        <v>354</v>
       </c>
       <c r="J86" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>185</v>
+        <v>586</v>
       </c>
       <c r="B87" t="s">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>216</v>
-      </c>
-      <c r="E87" t="s">
-        <v>493</v>
+        <v>205</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>590</v>
       </c>
       <c r="F87" t="s">
-        <v>269</v>
+        <v>351</v>
       </c>
       <c r="G87" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="H87" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="I87" t="s">
-        <v>281</v>
+        <v>354</v>
       </c>
       <c r="J87" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="B88" t="s">
         <v>29</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E88" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="F88" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G88" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H88" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="I88" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J88" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B89" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E89" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="F89" t="s">
-        <v>364</v>
+        <v>262</v>
       </c>
       <c r="G89" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="H89" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="I89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="J89" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>121</v>
+        <v>183</v>
       </c>
       <c r="B90" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="E90" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="F90" t="s">
-        <v>367</v>
+        <v>262</v>
       </c>
       <c r="G90" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="H90" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I90" t="s">
-        <v>370</v>
+        <v>274</v>
       </c>
       <c r="J90" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="B91" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E91" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="F91" t="s">
-        <v>367</v>
+        <v>262</v>
       </c>
       <c r="G91" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="H91" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I91" t="s">
-        <v>370</v>
+        <v>274</v>
       </c>
       <c r="J91" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="E92" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="F92" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="G92" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="H92" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="I92" t="s">
-        <v>374</v>
+        <v>278</v>
       </c>
       <c r="J92" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E93" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="F93" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="G93" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="H93" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="I93" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="J93" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>121</v>
+      </c>
+      <c r="B94" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
         <v>205</v>
       </c>
-      <c r="B94" t="s">
-        <v>10</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94" t="s">
-        <v>235</v>
-      </c>
       <c r="E94" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="F94" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="G94" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="H94" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="I94" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="J94" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="B95" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="E95" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="F95" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="G95" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="H95" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="I95" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="J95" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="B96" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="E96" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="F96" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="G96" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="H96" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="I96" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="J96" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="B97" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="E97" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="F97" t="s">
-        <v>282</v>
+        <v>364</v>
       </c>
       <c r="G97" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="H97" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="I97" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="J97" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E98" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="F98" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="G98" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="H98" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="I98" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="J98" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E99" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="F99" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="G99" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="H99" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="I99" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="J99" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B100" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E100" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="F100" t="s">
-        <v>386</v>
+        <v>275</v>
       </c>
       <c r="G100" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="H100" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="I100" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="J100" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="B101" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E101" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="F101" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="G101" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="H101" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="I101" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="J101" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B102" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="E102" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="F102" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="G102" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="H102" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="I102" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="J102" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>238</v>
+        <v>142</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="E103" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="F103" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="G103" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="H103" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="I103" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="J103" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>239</v>
+        <v>143</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="E104" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="F104" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="G104" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="H104" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="I104" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="J104" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E105" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="F105" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="G105" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="H105" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="I105" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="J105" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
@@ -5529,126 +5578,126 @@
         <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E106" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="F106" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G106" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="H106" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="I106" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J106" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="B107" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="E107" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="F107" t="s">
+        <v>383</v>
+      </c>
+      <c r="G107" t="s">
+        <v>384</v>
+      </c>
+      <c r="H107" t="s">
+        <v>385</v>
+      </c>
+      <c r="I107" t="s">
         <v>386</v>
       </c>
-      <c r="G107" t="s">
-        <v>394</v>
-      </c>
-      <c r="H107" t="s">
-        <v>395</v>
-      </c>
-      <c r="I107" t="s">
-        <v>396</v>
-      </c>
       <c r="J107" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>65</v>
+        <v>231</v>
       </c>
       <c r="B108" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E108" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="F108" t="s">
+        <v>383</v>
+      </c>
+      <c r="G108" t="s">
+        <v>384</v>
+      </c>
+      <c r="H108" t="s">
+        <v>385</v>
+      </c>
+      <c r="I108" t="s">
         <v>386</v>
       </c>
-      <c r="G108" t="s">
-        <v>394</v>
-      </c>
-      <c r="H108" t="s">
-        <v>395</v>
-      </c>
-      <c r="I108" t="s">
-        <v>396</v>
-      </c>
       <c r="J108" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>66</v>
+        <v>232</v>
       </c>
       <c r="B109" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E109" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="F109" t="s">
+        <v>383</v>
+      </c>
+      <c r="G109" t="s">
+        <v>384</v>
+      </c>
+      <c r="H109" t="s">
+        <v>385</v>
+      </c>
+      <c r="I109" t="s">
         <v>386</v>
       </c>
-      <c r="G109" t="s">
-        <v>394</v>
-      </c>
-      <c r="H109" t="s">
-        <v>395</v>
-      </c>
-      <c r="I109" t="s">
-        <v>396</v>
-      </c>
       <c r="J109" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B110" t="s">
         <v>4</v>
@@ -5657,30 +5706,30 @@
         <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="E110" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="F110" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G110" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="H110" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="I110" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="J110" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>70</v>
+        <v>585</v>
       </c>
       <c r="B111" t="s">
         <v>4</v>
@@ -5689,30 +5738,30 @@
         <v>0</v>
       </c>
       <c r="D111" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="E111" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="F111" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G111" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="H111" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="I111" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="J111" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B112" t="s">
         <v>4</v>
@@ -5721,190 +5770,190 @@
         <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>240</v>
-      </c>
-      <c r="E112" t="s">
-        <v>502</v>
+        <v>216</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>594</v>
       </c>
       <c r="F112" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G112" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="H112" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="I112" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="J112" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B113" t="s">
         <v>4</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>240</v>
-      </c>
-      <c r="E113" t="s">
-        <v>502</v>
+        <v>216</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>594</v>
       </c>
       <c r="F113" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G113" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="H113" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="I113" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="J113" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="B114" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114" t="s">
-        <v>212</v>
-      </c>
-      <c r="E114" t="s">
-        <v>503</v>
+        <v>216</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>594</v>
       </c>
       <c r="F114" t="s">
-        <v>317</v>
+        <v>379</v>
       </c>
       <c r="G114" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="H114" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="I114" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="J114" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="B115" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>212</v>
-      </c>
-      <c r="E115" t="s">
-        <v>503</v>
+        <v>216</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>595</v>
       </c>
       <c r="F115" t="s">
-        <v>317</v>
+        <v>379</v>
       </c>
       <c r="G115" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="H115" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="I115" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="J115" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="B116" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
       <c r="D116" t="s">
-        <v>212</v>
-      </c>
-      <c r="E116" t="s">
-        <v>503</v>
+        <v>216</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>595</v>
       </c>
       <c r="F116" t="s">
-        <v>317</v>
+        <v>379</v>
       </c>
       <c r="G116" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="H116" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="I116" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="J116" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="B117" t="s">
         <v>40</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117" t="s">
-        <v>212</v>
-      </c>
-      <c r="E117" t="s">
-        <v>503</v>
+        <v>205</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>493</v>
       </c>
       <c r="F117" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G117" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="H117" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="I117" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="J117" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="B118" t="s">
         <v>40</v>
@@ -5913,126 +5962,126 @@
         <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E118" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="F118" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G118" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="H118" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="I118" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="J118" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D119" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="E119" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F119" t="s">
-        <v>402</v>
+        <v>310</v>
       </c>
       <c r="G119" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="H119" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="I119" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="J119" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E120" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F120" t="s">
-        <v>402</v>
+        <v>310</v>
       </c>
       <c r="G120" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="H120" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="I120" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="J120" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="E121" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F121" t="s">
-        <v>402</v>
+        <v>310</v>
       </c>
       <c r="G121" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="H121" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="I121" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="J121" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
@@ -6041,286 +6090,286 @@
         <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E122" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F122" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G122" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="H122" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="I122" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="J122" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>177</v>
+        <v>67</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="E123" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="F123" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="G123" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="H123" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="I123" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="J123" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>178</v>
+        <v>68</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E124" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="F124" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="G124" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="H124" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="I124" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="J124" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>242</v>
+        <v>150</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="E125" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="F125" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="G125" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="H125" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="I125" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="J125" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="B126" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E126" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="F126" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="G126" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="H126" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="I126" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="J126" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>246</v>
+        <v>175</v>
       </c>
       <c r="B127" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E127" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="F127" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="G127" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="H127" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="I127" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="J127" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="B128" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E128" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F128" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="G128" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="H128" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="I128" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="J128" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B129" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E129" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="F129" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="G129" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="H129" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="I129" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="J129" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>155</v>
+        <v>239</v>
       </c>
       <c r="B130" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D130" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E130" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="F130" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="G130" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="H130" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="I130" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="J130" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>156</v>
+        <v>565</v>
       </c>
       <c r="B131" t="s">
         <v>43</v>
@@ -6329,30 +6378,30 @@
         <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E131" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F131" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G131" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="H131" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="I131" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="J131" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B132" t="s">
         <v>43</v>
@@ -6361,62 +6410,62 @@
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E132" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F132" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G132" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="H132" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="I132" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="J132" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B133" t="s">
         <v>43</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E133" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F133" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G133" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="H133" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="I133" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="J133" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>576</v>
+        <v>154</v>
       </c>
       <c r="B134" t="s">
         <v>43</v>
@@ -6425,30 +6474,30 @@
         <v>1</v>
       </c>
       <c r="D134" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E134" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F134" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G134" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="H134" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="I134" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="J134" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B135" t="s">
         <v>43</v>
@@ -6457,30 +6506,30 @@
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E135" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F135" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G135" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="H135" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="I135" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="J135" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B136" t="s">
         <v>43</v>
@@ -6489,62 +6538,62 @@
         <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E136" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F136" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G136" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="H136" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="I136" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="J136" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B137" t="s">
         <v>43</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D137" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E137" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F137" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G137" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="H137" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="I137" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="J137" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B138" t="s">
         <v>43</v>
@@ -6553,30 +6602,30 @@
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E138" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F138" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G138" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="H138" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="I138" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="J138" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B139" t="s">
         <v>43</v>
@@ -6585,126 +6634,126 @@
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E139" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F139" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G139" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="H139" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="I139" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="J139" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="B140" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
       <c r="D140" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E140" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="F140" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G140" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="H140" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="I140" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="J140" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="B141" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E141" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="F141" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G141" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="H141" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="I141" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="J141" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="B142" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E142" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="F142" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G142" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="H142" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="I142" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="J142" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B143" t="s">
         <v>17</v>
@@ -6713,30 +6762,30 @@
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E143" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="F143" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G143" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="H143" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="I143" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="J143" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B144" t="s">
         <v>17</v>
@@ -6745,30 +6794,30 @@
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E144" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="F144" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G144" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="H144" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="I144" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="J144" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>588</v>
+        <v>92</v>
       </c>
       <c r="B145" t="s">
         <v>17</v>
@@ -6777,30 +6826,30 @@
         <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>590</v>
+        <v>209</v>
       </c>
       <c r="E145" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="F145" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G145" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="H145" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="I145" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="J145" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>589</v>
+        <v>93</v>
       </c>
       <c r="B146" t="s">
         <v>17</v>
@@ -6809,30 +6858,30 @@
         <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>590</v>
+        <v>205</v>
       </c>
       <c r="E146" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="F146" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G146" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="H146" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="I146" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="J146" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>591</v>
+        <v>94</v>
       </c>
       <c r="B147" t="s">
         <v>17</v>
@@ -6841,889 +6890,985 @@
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>592</v>
+        <v>205</v>
       </c>
       <c r="E147" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="F147" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G147" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="H147" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="I147" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="J147" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="B148" t="s">
         <v>17</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>223</v>
+        <v>581</v>
       </c>
       <c r="E148" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="F148" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G148" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="H148" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="I148" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="J148" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>136</v>
+        <v>577</v>
       </c>
       <c r="B149" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>216</v>
+        <v>579</v>
       </c>
       <c r="E149" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="F149" t="s">
-        <v>317</v>
+        <v>379</v>
       </c>
       <c r="G149" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="H149" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="I149" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="J149" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>139</v>
+        <v>578</v>
       </c>
       <c r="B150" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>212</v>
+        <v>579</v>
       </c>
       <c r="E150" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="F150" t="s">
-        <v>317</v>
+        <v>379</v>
       </c>
       <c r="G150" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="H150" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="I150" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="J150" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>119</v>
+        <v>582</v>
       </c>
       <c r="B151" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D151" t="s">
-        <v>217</v>
-      </c>
-      <c r="E151" t="s">
-        <v>510</v>
+        <v>216</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>596</v>
       </c>
       <c r="F151" t="s">
-        <v>423</v>
+        <v>379</v>
       </c>
       <c r="G151" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="H151" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="I151" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="J151" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="B152" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E152" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="F152" t="s">
-        <v>423</v>
+        <v>310</v>
       </c>
       <c r="G152" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="H152" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="I152" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="J152" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="B153" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D153" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="E153" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F153" t="s">
-        <v>390</v>
+        <v>310</v>
       </c>
       <c r="G153" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="H153" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="I153" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="J153" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="B154" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D154" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E154" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F154" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="G154" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="H154" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="I154" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="J154" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>244</v>
+        <v>119</v>
       </c>
       <c r="B155" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E155" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F155" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="G155" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="H155" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="I155" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="J155" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>245</v>
+        <v>177</v>
       </c>
       <c r="B156" t="s">
         <v>48</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D156" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E156" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="F156" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G156" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="H156" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="I156" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="J156" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D157" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E157" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="F157" t="s">
-        <v>430</v>
+        <v>383</v>
       </c>
       <c r="G157" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="H157" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="I157" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="J157" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="B158" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E158" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="F158" t="s">
-        <v>430</v>
+        <v>383</v>
       </c>
       <c r="G158" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="H158" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="I158" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="J158" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>175</v>
+        <v>237</v>
       </c>
       <c r="B159" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E159" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="F159" t="s">
-        <v>434</v>
+        <v>383</v>
       </c>
       <c r="G159" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="H159" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="I159" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="J159" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B160" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E160" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="F160" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="G160" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="H160" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="I160" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="J160" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B161" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E161" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="F161" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="G161" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="H161" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="I161" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="J161" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="B162" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D162" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="E162" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="F162" t="s">
-        <v>327</v>
+        <v>427</v>
       </c>
       <c r="G162" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="H162" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="I162" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="J162" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="B163" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>218</v>
-      </c>
-      <c r="E163" t="s">
-        <v>513</v>
+        <v>205</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>502</v>
       </c>
       <c r="F163" t="s">
-        <v>327</v>
+        <v>427</v>
       </c>
       <c r="G163" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="H163" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="I163" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="J163" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="B164" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164" t="s">
-        <v>217</v>
-      </c>
-      <c r="E164" t="s">
-        <v>513</v>
+        <v>205</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>476</v>
       </c>
       <c r="F164" t="s">
-        <v>327</v>
+        <v>431</v>
       </c>
       <c r="G164" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="H164" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="I164" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="J164" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c r="B165" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D165" t="s">
-        <v>212</v>
-      </c>
-      <c r="E165" t="s">
-        <v>514</v>
+        <v>211</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>475</v>
       </c>
       <c r="F165" t="s">
-        <v>447</v>
+        <v>320</v>
       </c>
       <c r="G165" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="H165" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="I165" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="J165" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>243</v>
+        <v>123</v>
       </c>
       <c r="B166" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166" t="s">
-        <v>212</v>
-      </c>
-      <c r="E166" t="s">
-        <v>514</v>
+        <v>211</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>475</v>
       </c>
       <c r="F166" t="s">
-        <v>447</v>
+        <v>320</v>
       </c>
       <c r="G166" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="H166" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="I166" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="J166" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>116</v>
+        <v>584</v>
       </c>
       <c r="B167" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167" t="s">
-        <v>216</v>
-      </c>
-      <c r="E167" t="s">
-        <v>515</v>
+        <v>210</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>475</v>
       </c>
       <c r="F167" t="s">
-        <v>450</v>
+        <v>320</v>
       </c>
       <c r="G167" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="H167" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="I167" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="J167" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>117</v>
+        <v>236</v>
       </c>
       <c r="B168" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D168" t="s">
-        <v>215</v>
-      </c>
-      <c r="E168" t="s">
-        <v>515</v>
+        <v>205</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>504</v>
       </c>
       <c r="F168" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="G168" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="H168" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="I168" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="J168" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="B169" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C169">
         <v>0</v>
       </c>
       <c r="D169" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="E169" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="F169" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="G169" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="H169" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="I169" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J169" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="B170" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D170" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E170" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="F170" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="G170" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="H170" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="I170" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="J170" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>115</v>
+      </c>
+      <c r="B171" t="s">
+        <v>55</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171" t="s">
         <v>209</v>
       </c>
-      <c r="B171" t="s">
-        <v>1</v>
-      </c>
-      <c r="C171">
-        <v>0</v>
-      </c>
-      <c r="D171" t="s">
-        <v>213</v>
-      </c>
       <c r="E171" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="F171" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="G171" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="H171" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="I171" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="J171" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>577</v>
+        <v>76</v>
       </c>
       <c r="B172" t="s">
-        <v>578</v>
+        <v>9</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D172" t="s">
-        <v>579</v>
-      </c>
-      <c r="E172" t="s">
-        <v>580</v>
+        <v>207</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>503</v>
       </c>
       <c r="F172" t="s">
-        <v>581</v>
+        <v>446</v>
       </c>
       <c r="G172" t="s">
-        <v>582</v>
+        <v>447</v>
       </c>
       <c r="H172" t="s">
-        <v>583</v>
+        <v>448</v>
       </c>
       <c r="I172" t="s">
-        <v>584</v>
+        <v>449</v>
       </c>
       <c r="J172" t="s">
-        <v>585</v>
+        <v>563</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>586</v>
+        <v>202</v>
       </c>
       <c r="B173" t="s">
-        <v>578</v>
+        <v>1</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D173" t="s">
-        <v>579</v>
-      </c>
-      <c r="E173" t="s">
-        <v>580</v>
+        <v>206</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>607</v>
       </c>
       <c r="F173" t="s">
-        <v>581</v>
+        <v>450</v>
       </c>
       <c r="G173" t="s">
-        <v>582</v>
+        <v>454</v>
       </c>
       <c r="H173" t="s">
-        <v>583</v>
+        <v>452</v>
       </c>
       <c r="I173" t="s">
-        <v>584</v>
+        <v>455</v>
       </c>
       <c r="J173" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>587</v>
+        <v>59</v>
       </c>
       <c r="B174" t="s">
-        <v>578</v>
+        <v>1</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174" t="s">
-        <v>579</v>
-      </c>
-      <c r="E174" t="s">
-        <v>580</v>
+        <v>206</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>593</v>
       </c>
       <c r="F174" t="s">
-        <v>581</v>
+        <v>450</v>
       </c>
       <c r="G174" t="s">
-        <v>582</v>
+        <v>451</v>
       </c>
       <c r="H174" t="s">
-        <v>583</v>
+        <v>452</v>
       </c>
       <c r="I174" t="s">
-        <v>584</v>
+        <v>453</v>
       </c>
       <c r="J174" t="s">
-        <v>585</v>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>597</v>
+      </c>
+      <c r="B175" t="s">
+        <v>600</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175" t="s">
+        <v>205</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="F175" t="s">
+        <v>601</v>
+      </c>
+      <c r="G175" t="s">
+        <v>602</v>
+      </c>
+      <c r="H175" t="s">
+        <v>603</v>
+      </c>
+      <c r="I175" t="s">
+        <v>604</v>
+      </c>
+      <c r="J175" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>599</v>
+      </c>
+      <c r="B176" t="s">
+        <v>600</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176" t="s">
+        <v>209</v>
+      </c>
+      <c r="E176" t="s">
+        <v>605</v>
+      </c>
+      <c r="F176" t="s">
+        <v>601</v>
+      </c>
+      <c r="G176" t="s">
+        <v>602</v>
+      </c>
+      <c r="H176" t="s">
+        <v>603</v>
+      </c>
+      <c r="I176" t="s">
+        <v>604</v>
+      </c>
+      <c r="J176" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>598</v>
+      </c>
+      <c r="B177" t="s">
+        <v>600</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177" t="s">
+        <v>209</v>
+      </c>
+      <c r="E177" t="s">
+        <v>605</v>
+      </c>
+      <c r="F177" t="s">
+        <v>601</v>
+      </c>
+      <c r="G177" t="s">
+        <v>602</v>
+      </c>
+      <c r="H177" t="s">
+        <v>603</v>
+      </c>
+      <c r="I177" t="s">
+        <v>604</v>
+      </c>
+      <c r="J177" t="s">
+        <v>606</v>
       </c>
     </row>
   </sheetData>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="611">
   <si>
     <t>Aripiprazole</t>
   </si>
@@ -1843,6 +1843,15 @@
   </si>
   <si>
     <t>20 hours</t>
+  </si>
+  <si>
+    <t>CIPRALEX 10MG TAB</t>
+  </si>
+  <si>
+    <t>QUITAPEX 400 XR Tab.</t>
+  </si>
+  <si>
+    <t>RECOMMENDED DOSE</t>
   </si>
 </sst>
 </file>
@@ -1905,12 +1914,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J177" totalsRowShown="0">
-  <autoFilter ref="A1:J177"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K179" totalsRowShown="0">
+  <autoFilter ref="A1:K179"/>
   <sortState ref="A2:J174">
     <sortCondition ref="B1:B174"/>
   </sortState>
-  <tableColumns count="10">
+  <tableColumns count="11">
     <tableColumn id="1" name="name"/>
     <tableColumn id="2" name="active"/>
     <tableColumn id="3" name="available"/>
@@ -1921,6 +1930,7 @@
     <tableColumn id="7" name="interactions"/>
     <tableColumn id="10" name="important labs"/>
     <tableColumn id="15" name="monitor"/>
+    <tableColumn id="5" name="RECOMMENDED DOSE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2189,10 +2199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J177"/>
+  <dimension ref="A1:K179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="E174" sqref="E174"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2207,7 +2217,7 @@
     <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>241</v>
       </c>
@@ -2238,8 +2248,11 @@
       <c r="J1" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>190</v>
       </c>
@@ -2271,7 +2284,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -2303,7 +2316,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>189</v>
       </c>
@@ -2335,7 +2348,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>191</v>
       </c>
@@ -2367,7 +2380,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>191</v>
       </c>
@@ -2399,7 +2412,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -2431,7 +2444,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -2463,7 +2476,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>192</v>
       </c>
@@ -2495,7 +2508,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>193</v>
       </c>
@@ -2527,7 +2540,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -2559,7 +2572,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -2591,7 +2604,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>171</v>
       </c>
@@ -2623,7 +2636,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>172</v>
       </c>
@@ -2655,7 +2668,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>181</v>
       </c>
@@ -2687,7 +2700,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>182</v>
       </c>
@@ -4385,39 +4398,39 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>197</v>
+        <v>608</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E69" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F69" t="s">
         <v>310</v>
       </c>
       <c r="G69" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H69" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I69" t="s">
         <v>337</v>
       </c>
       <c r="J69" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="B70" t="s">
         <v>41</v>
@@ -4426,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="E70" t="s">
         <v>479</v>
@@ -4449,7 +4462,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="B71" t="s">
         <v>41</v>
@@ -4458,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E71" t="s">
         <v>479</v>
@@ -4481,71 +4494,71 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="B72" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>206</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>593</v>
+        <v>225</v>
+      </c>
+      <c r="E72" t="s">
+        <v>479</v>
       </c>
       <c r="F72" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="G72" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H72" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I72" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="J72" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>205</v>
-      </c>
-      <c r="E73" t="s">
-        <v>480</v>
+        <v>206</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>593</v>
       </c>
       <c r="F73" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="G73" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H73" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I73" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="J73" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B74" t="s">
         <v>30</v>
@@ -4554,7 +4567,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="E74" t="s">
         <v>480</v>
@@ -4577,39 +4590,39 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>566</v>
+        <v>127</v>
       </c>
       <c r="B75" t="s">
-        <v>567</v>
+        <v>30</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>568</v>
+        <v>227</v>
       </c>
       <c r="E75" t="s">
-        <v>569</v>
+        <v>480</v>
       </c>
       <c r="F75" t="s">
-        <v>570</v>
+        <v>310</v>
       </c>
       <c r="G75" t="s">
-        <v>571</v>
+        <v>343</v>
       </c>
       <c r="H75" t="s">
-        <v>572</v>
+        <v>344</v>
       </c>
       <c r="I75" t="s">
-        <v>573</v>
+        <v>337</v>
       </c>
       <c r="J75" t="s">
-        <v>574</v>
+        <v>534</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="B76" t="s">
         <v>567</v>
@@ -4641,7 +4654,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B77" t="s">
         <v>567</v>
@@ -4673,51 +4686,51 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>61</v>
+        <v>576</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>567</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>228</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>591</v>
+        <v>568</v>
+      </c>
+      <c r="E78" t="s">
+        <v>569</v>
       </c>
       <c r="F78" t="s">
-        <v>345</v>
+        <v>570</v>
       </c>
       <c r="G78" t="s">
-        <v>346</v>
+        <v>571</v>
       </c>
       <c r="H78" t="s">
-        <v>347</v>
+        <v>572</v>
       </c>
       <c r="I78" t="s">
-        <v>309</v>
+        <v>573</v>
       </c>
       <c r="J78" t="s">
-        <v>535</v>
+        <v>574</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>207</v>
-      </c>
-      <c r="E79" t="s">
-        <v>481</v>
+        <v>228</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>591</v>
       </c>
       <c r="F79" t="s">
         <v>345</v>
@@ -4737,7 +4750,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
@@ -4769,7 +4782,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
@@ -4778,7 +4791,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="E81" t="s">
         <v>481</v>
@@ -4801,19 +4814,19 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>228</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>591</v>
+        <v>229</v>
+      </c>
+      <c r="E82" t="s">
+        <v>481</v>
       </c>
       <c r="F82" t="s">
         <v>345</v>
@@ -4833,39 +4846,39 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>205</v>
-      </c>
-      <c r="E83" t="s">
-        <v>482</v>
+        <v>228</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>591</v>
       </c>
       <c r="F83" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="G83" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H83" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I83" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="J83" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B84" t="s">
         <v>32</v>
@@ -4897,7 +4910,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B85" t="s">
         <v>32</v>
@@ -4929,10 +4942,10 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>587</v>
+        <v>133</v>
       </c>
       <c r="B86" t="s">
-        <v>198</v>
+        <v>32</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4940,34 +4953,34 @@
       <c r="D86" t="s">
         <v>205</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>590</v>
+      <c r="E86" t="s">
+        <v>482</v>
       </c>
       <c r="F86" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="G86" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H86" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I86" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="J86" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B87" t="s">
         <v>198</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="s">
         <v>205</v>
@@ -4993,10 +5006,10 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>124</v>
+        <v>586</v>
       </c>
       <c r="B88" t="s">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -5004,28 +5017,28 @@
       <c r="D88" t="s">
         <v>205</v>
       </c>
-      <c r="E88" t="s">
-        <v>483</v>
+      <c r="E88" s="1" t="s">
+        <v>590</v>
       </c>
       <c r="F88" t="s">
-        <v>262</v>
+        <v>351</v>
       </c>
       <c r="G88" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H88" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I88" t="s">
-        <v>274</v>
+        <v>354</v>
       </c>
       <c r="J88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B89" t="s">
         <v>29</v>
@@ -5057,16 +5070,16 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="B90" t="s">
         <v>29</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E90" t="s">
         <v>483</v>
@@ -5089,7 +5102,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B91" t="s">
         <v>29</v>
@@ -5121,80 +5134,80 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="B92" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E92" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F92" t="s">
-        <v>357</v>
+        <v>262</v>
       </c>
       <c r="G92" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H92" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I92" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J92" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B93" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="E93" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F93" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G93" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H93" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I93" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="J93" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B94" t="s">
         <v>27</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="E94" t="s">
         <v>485</v>
@@ -5217,45 +5230,45 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="E95" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F95" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G95" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H95" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I95" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="J95" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="B96" t="s">
         <v>10</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" t="s">
         <v>228</v>
@@ -5281,7 +5294,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B97" t="s">
         <v>10</v>
@@ -5313,39 +5326,39 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="B98" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="E98" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F98" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G98" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H98" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I98" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="J98" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="B99" t="s">
         <v>36</v>
@@ -5354,7 +5367,7 @@
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E99" t="s">
         <v>487</v>
@@ -5377,10 +5390,10 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="B100" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -5389,59 +5402,59 @@
         <v>207</v>
       </c>
       <c r="E100" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F100" t="s">
-        <v>275</v>
+        <v>368</v>
       </c>
       <c r="G100" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H100" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I100" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J100" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E101" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F101" t="s">
-        <v>375</v>
+        <v>275</v>
       </c>
       <c r="G101" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H101" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I101" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="J101" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="B102" t="s">
         <v>16</v>
@@ -5450,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="D102" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E102" t="s">
         <v>489</v>
@@ -5473,39 +5486,39 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="B103" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E103" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F103" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G103" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H103" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="I103" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="J103" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B104" t="s">
         <v>39</v>
@@ -5537,16 +5550,16 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>201</v>
+        <v>143</v>
       </c>
       <c r="B105" t="s">
         <v>39</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E105" t="s">
         <v>490</v>
@@ -5569,39 +5582,39 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D106" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E106" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F106" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G106" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H106" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I106" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="J106" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -5633,16 +5646,16 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>231</v>
+        <v>145</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="E108" t="s">
         <v>491</v>
@@ -5665,7 +5678,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
@@ -5697,45 +5710,45 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>73</v>
+        <v>232</v>
       </c>
       <c r="B110" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D110" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="E110" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F110" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="G110" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H110" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I110" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="J110" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>585</v>
+        <v>73</v>
       </c>
       <c r="B111" t="s">
         <v>4</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111" t="s">
         <v>233</v>
@@ -5761,19 +5774,19 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>64</v>
+        <v>585</v>
       </c>
       <c r="B112" t="s">
         <v>4</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D112" t="s">
-        <v>216</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>594</v>
+        <v>233</v>
+      </c>
+      <c r="E112" t="s">
+        <v>492</v>
       </c>
       <c r="F112" t="s">
         <v>379</v>
@@ -5785,7 +5798,7 @@
         <v>388</v>
       </c>
       <c r="I112" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="J112" t="s">
         <v>547</v>
@@ -5793,7 +5806,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B113" t="s">
         <v>4</v>
@@ -5825,13 +5838,13 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B114" t="s">
         <v>4</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" t="s">
         <v>216</v>
@@ -5857,19 +5870,19 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B115" t="s">
         <v>4</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115" t="s">
         <v>216</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F115" t="s">
         <v>379</v>
@@ -5881,7 +5894,7 @@
         <v>388</v>
       </c>
       <c r="I115" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J115" t="s">
         <v>547</v>
@@ -5889,13 +5902,13 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B116" t="s">
         <v>4</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116" t="s">
         <v>216</v>
@@ -5921,50 +5934,50 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="B117" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C117">
         <v>0</v>
       </c>
       <c r="D117" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>493</v>
+        <v>595</v>
       </c>
       <c r="F117" t="s">
-        <v>310</v>
+        <v>379</v>
       </c>
       <c r="G117" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="H117" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="I117" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="J117" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B118" t="s">
         <v>40</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D118" t="s">
         <v>205</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="1" t="s">
         <v>493</v>
       </c>
       <c r="F118" t="s">
@@ -5985,13 +5998,13 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B119" t="s">
         <v>40</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119" t="s">
         <v>205</v>
@@ -6017,13 +6030,13 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="B120" t="s">
         <v>40</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D120" t="s">
         <v>205</v>
@@ -6049,7 +6062,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B121" t="s">
         <v>40</v>
@@ -6081,39 +6094,39 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="E122" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F122" t="s">
-        <v>395</v>
+        <v>310</v>
       </c>
       <c r="G122" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H122" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I122" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="J122" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
@@ -6122,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E123" t="s">
         <v>494</v>
@@ -6145,7 +6158,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
@@ -6154,7 +6167,7 @@
         <v>1</v>
       </c>
       <c r="D124" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="E124" t="s">
         <v>494</v>
@@ -6177,7 +6190,7 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
@@ -6186,7 +6199,7 @@
         <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="E125" t="s">
         <v>494</v>
@@ -6209,39 +6222,39 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="E126" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F126" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G126" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H126" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I126" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J126" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="B127" t="s">
         <v>12</v>
@@ -6250,7 +6263,7 @@
         <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E127" t="s">
         <v>495</v>
@@ -6273,7 +6286,7 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B128" t="s">
         <v>12</v>
@@ -6282,7 +6295,7 @@
         <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E128" t="s">
         <v>495</v>
@@ -6305,10 +6318,10 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="B129" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -6317,33 +6330,33 @@
         <v>205</v>
       </c>
       <c r="E129" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F129" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G129" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H129" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I129" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="J129" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>239</v>
+        <v>160</v>
       </c>
       <c r="B130" t="s">
         <v>44</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" t="s">
         <v>205</v>
@@ -6369,39 +6382,39 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>565</v>
+        <v>239</v>
       </c>
       <c r="B131" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D131" t="s">
         <v>205</v>
       </c>
       <c r="E131" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F131" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="G131" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H131" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I131" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="J131" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>152</v>
+        <v>565</v>
       </c>
       <c r="B132" t="s">
         <v>43</v>
@@ -6425,7 +6438,7 @@
         <v>408</v>
       </c>
       <c r="I132" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="J132" t="s">
         <v>552</v>
@@ -6433,7 +6446,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B133" t="s">
         <v>43</v>
@@ -6465,7 +6478,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B134" t="s">
         <v>43</v>
@@ -6497,7 +6510,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B135" t="s">
         <v>43</v>
@@ -6521,7 +6534,7 @@
         <v>408</v>
       </c>
       <c r="I135" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J135" t="s">
         <v>552</v>
@@ -6529,7 +6542,7 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B136" t="s">
         <v>43</v>
@@ -6561,13 +6574,13 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B137" t="s">
         <v>43</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D137" t="s">
         <v>205</v>
@@ -6593,13 +6606,13 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B138" t="s">
         <v>43</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D138" t="s">
         <v>205</v>
@@ -6625,13 +6638,13 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B139" t="s">
         <v>43</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D139" t="s">
         <v>205</v>
@@ -6657,7 +6670,7 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>166</v>
+        <v>609</v>
       </c>
       <c r="B140" t="s">
         <v>43</v>
@@ -6681,7 +6694,7 @@
         <v>408</v>
       </c>
       <c r="I140" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="J140" t="s">
         <v>552</v>
@@ -6689,7 +6702,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B141" t="s">
         <v>43</v>
@@ -6713,7 +6726,7 @@
         <v>408</v>
       </c>
       <c r="I141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="J141" t="s">
         <v>552</v>
@@ -6721,7 +6734,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B142" t="s">
         <v>43</v>
@@ -6753,10 +6766,10 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="B143" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -6765,59 +6778,59 @@
         <v>205</v>
       </c>
       <c r="E143" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F143" t="s">
         <v>379</v>
       </c>
       <c r="G143" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H143" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="I143" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="J143" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="B144" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E144" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F144" t="s">
         <v>379</v>
       </c>
       <c r="G144" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H144" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="I144" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="J144" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B145" t="s">
         <v>17</v>
@@ -6826,7 +6839,7 @@
         <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E145" t="s">
         <v>498</v>
@@ -6849,7 +6862,7 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B146" t="s">
         <v>17</v>
@@ -6858,7 +6871,7 @@
         <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E146" t="s">
         <v>498</v>
@@ -6881,7 +6894,7 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B147" t="s">
         <v>17</v>
@@ -6890,7 +6903,7 @@
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E147" t="s">
         <v>498</v>
@@ -6913,7 +6926,7 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>580</v>
+        <v>93</v>
       </c>
       <c r="B148" t="s">
         <v>17</v>
@@ -6922,7 +6935,7 @@
         <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>581</v>
+        <v>205</v>
       </c>
       <c r="E148" t="s">
         <v>498</v>
@@ -6945,7 +6958,7 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>577</v>
+        <v>94</v>
       </c>
       <c r="B149" t="s">
         <v>17</v>
@@ -6954,7 +6967,7 @@
         <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>579</v>
+        <v>205</v>
       </c>
       <c r="E149" t="s">
         <v>498</v>
@@ -6977,7 +6990,7 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B150" t="s">
         <v>17</v>
@@ -6986,7 +6999,7 @@
         <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E150" t="s">
         <v>498</v>
@@ -7009,19 +7022,19 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B151" t="s">
         <v>17</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>216</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>596</v>
+        <v>579</v>
+      </c>
+      <c r="E151" t="s">
+        <v>498</v>
       </c>
       <c r="F151" t="s">
         <v>379</v>
@@ -7041,208 +7054,208 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>135</v>
+        <v>578</v>
       </c>
       <c r="B152" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>209</v>
+        <v>579</v>
       </c>
       <c r="E152" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F152" t="s">
-        <v>310</v>
+        <v>379</v>
       </c>
       <c r="G152" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H152" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="I152" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J152" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>138</v>
+        <v>582</v>
       </c>
       <c r="B153" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D153" t="s">
-        <v>205</v>
-      </c>
-      <c r="E153" t="s">
-        <v>499</v>
+        <v>216</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>596</v>
       </c>
       <c r="F153" t="s">
-        <v>310</v>
+        <v>379</v>
       </c>
       <c r="G153" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H153" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="I153" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J153" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B154" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E154" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F154" t="s">
-        <v>416</v>
+        <v>310</v>
       </c>
       <c r="G154" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H154" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="I154" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J154" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="B155" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E155" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F155" t="s">
-        <v>416</v>
+        <v>310</v>
       </c>
       <c r="G155" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H155" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="I155" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J155" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="B156" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D156" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E156" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="F156" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="G156" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H156" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="I156" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J156" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="B157" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D157" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E157" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="F157" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="G157" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H157" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="I157" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J157" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="B158" t="s">
         <v>48</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D158" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="E158" t="s">
         <v>493</v>
@@ -7265,16 +7278,16 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="B159" t="s">
         <v>48</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D159" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="E159" t="s">
         <v>493</v>
@@ -7297,231 +7310,231 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>179</v>
+        <v>238</v>
       </c>
       <c r="B160" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E160" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F160" t="s">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="G160" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H160" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I160" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="J160" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="B161" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E161" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F161" t="s">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="G161" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H161" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I161" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="J161" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B162" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D162" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E162" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F162" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G162" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H162" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I162" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="J162" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B163" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>205</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>502</v>
+        <v>209</v>
+      </c>
+      <c r="E163" t="s">
+        <v>501</v>
       </c>
       <c r="F163" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G163" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H163" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I163" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="J163" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B164" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D164" t="s">
         <v>205</v>
       </c>
-      <c r="E164" s="1" t="s">
-        <v>476</v>
+      <c r="E164" t="s">
+        <v>502</v>
       </c>
       <c r="F164" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G164" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H164" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I164" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="J164" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="B165" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>475</v>
+        <v>502</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>427</v>
       </c>
       <c r="G165" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="H165" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="I165" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="J165" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="B166" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>431</v>
       </c>
       <c r="G166" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H166" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="I166" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="J166" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>584</v>
+        <v>122</v>
       </c>
       <c r="B167" t="s">
         <v>28</v>
@@ -7530,7 +7543,7 @@
         <v>1</v>
       </c>
       <c r="D167" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>475</v>
@@ -7545,7 +7558,7 @@
         <v>436</v>
       </c>
       <c r="I167" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J167" t="s">
         <v>560</v>
@@ -7553,295 +7566,295 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>236</v>
+        <v>123</v>
       </c>
       <c r="B168" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>504</v>
+        <v>475</v>
       </c>
       <c r="F168" t="s">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="G168" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H168" t="s">
         <v>436</v>
       </c>
       <c r="I168" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="J168" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>185</v>
+        <v>584</v>
       </c>
       <c r="B169" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D169" t="s">
-        <v>205</v>
-      </c>
-      <c r="E169" t="s">
-        <v>504</v>
+        <v>210</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>475</v>
       </c>
       <c r="F169" t="s">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="G169" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H169" t="s">
         <v>436</v>
       </c>
       <c r="I169" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J169" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="B170" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D170" t="s">
-        <v>208</v>
-      </c>
-      <c r="E170" t="s">
-        <v>505</v>
+        <v>205</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>504</v>
       </c>
       <c r="F170" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G170" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H170" t="s">
         <v>436</v>
       </c>
       <c r="I170" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J170" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="B171" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D171" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E171" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F171" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G171" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H171" t="s">
         <v>436</v>
       </c>
       <c r="I171" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J171" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="B172" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C172">
         <v>0</v>
       </c>
       <c r="D172" t="s">
-        <v>207</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>503</v>
+        <v>208</v>
+      </c>
+      <c r="E172" t="s">
+        <v>505</v>
       </c>
       <c r="F172" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G172" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H172" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="I172" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J172" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>202</v>
+        <v>115</v>
       </c>
       <c r="B173" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D173" t="s">
-        <v>206</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>607</v>
+        <v>209</v>
+      </c>
+      <c r="E173" t="s">
+        <v>505</v>
       </c>
       <c r="F173" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G173" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="H173" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="I173" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="J173" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B174" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D174" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>593</v>
+        <v>503</v>
       </c>
       <c r="F174" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G174" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H174" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I174" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="J174" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>597</v>
+        <v>202</v>
       </c>
       <c r="B175" t="s">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D175" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F175" t="s">
-        <v>601</v>
+        <v>450</v>
       </c>
       <c r="G175" t="s">
-        <v>602</v>
+        <v>454</v>
       </c>
       <c r="H175" t="s">
-        <v>603</v>
+        <v>452</v>
       </c>
       <c r="I175" t="s">
-        <v>604</v>
+        <v>455</v>
       </c>
       <c r="J175" t="s">
-        <v>606</v>
+        <v>564</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>599</v>
+        <v>59</v>
       </c>
       <c r="B176" t="s">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176" t="s">
-        <v>209</v>
-      </c>
-      <c r="E176" t="s">
-        <v>605</v>
+        <v>206</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>593</v>
       </c>
       <c r="F176" t="s">
-        <v>601</v>
+        <v>450</v>
       </c>
       <c r="G176" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="H176" t="s">
-        <v>603</v>
+        <v>452</v>
       </c>
       <c r="I176" t="s">
-        <v>604</v>
+        <v>453</v>
       </c>
       <c r="J176" t="s">
-        <v>606</v>
+        <v>564</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B177" t="s">
         <v>600</v>
@@ -7850,9 +7863,9 @@
         <v>1</v>
       </c>
       <c r="D177" t="s">
-        <v>209</v>
-      </c>
-      <c r="E177" t="s">
+        <v>205</v>
+      </c>
+      <c r="E177" s="1" t="s">
         <v>605</v>
       </c>
       <c r="F177" t="s">
@@ -7868,6 +7881,70 @@
         <v>604</v>
       </c>
       <c r="J177" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>599</v>
+      </c>
+      <c r="B178" t="s">
+        <v>600</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178" t="s">
+        <v>209</v>
+      </c>
+      <c r="E178" t="s">
+        <v>605</v>
+      </c>
+      <c r="F178" t="s">
+        <v>601</v>
+      </c>
+      <c r="G178" t="s">
+        <v>602</v>
+      </c>
+      <c r="H178" t="s">
+        <v>603</v>
+      </c>
+      <c r="I178" t="s">
+        <v>604</v>
+      </c>
+      <c r="J178" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>598</v>
+      </c>
+      <c r="B179" t="s">
+        <v>600</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179" t="s">
+        <v>209</v>
+      </c>
+      <c r="E179" t="s">
+        <v>605</v>
+      </c>
+      <c r="F179" t="s">
+        <v>601</v>
+      </c>
+      <c r="G179" t="s">
+        <v>602</v>
+      </c>
+      <c r="H179" t="s">
+        <v>603</v>
+      </c>
+      <c r="I179" t="s">
+        <v>604</v>
+      </c>
+      <c r="J179" t="s">
         <v>606</v>
       </c>
     </row>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="620">
   <si>
     <t>Aripiprazole</t>
   </si>
@@ -1852,6 +1852,33 @@
   </si>
   <si>
     <t>RECOMMENDED DOSE</t>
+  </si>
+  <si>
+    <t>ORAP FORTE 4mg Tab.</t>
+  </si>
+  <si>
+    <t>Pimozide</t>
+  </si>
+  <si>
+    <t>50–60 hours</t>
+  </si>
+  <si>
+    <t>Typical Antipsychotic (First Generation, Diphenylbutylpiperidine)</t>
+  </si>
+  <si>
+    <t>Sedation, extrapyramidal symptoms (EPS), QTc prolongation, weight gain, dry mouth, constipation</t>
+  </si>
+  <si>
+    <t>CYP3A4 inhibitors (e.g., ketoconazole, erythromycin), CYP1A2 inhibitors, other QTc-prolonging drugs (e.g., amiodarone, citalopram), CNS depressants</t>
+  </si>
+  <si>
+    <t>ECG (QTc interval) – baseline and periodically, especially with dose changes or risk factors; CBC (rare agranulocytosis)</t>
+  </si>
+  <si>
+    <t>QTc interval, EPS, sedation, signs of infection (agranulocytosis), cardiac symptoms (palpitations, syncope)</t>
+  </si>
+  <si>
+    <t>2–4 mg/day; max 10 mg/day (avoid high doses due to QTc risk)</t>
   </si>
 </sst>
 </file>
@@ -1914,8 +1941,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K179" totalsRowShown="0">
-  <autoFilter ref="A1:K179"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K180" totalsRowShown="0">
+  <autoFilter ref="A1:K180"/>
   <sortState ref="A2:J174">
     <sortCondition ref="B1:B174"/>
   </sortState>
@@ -2199,10 +2226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K179"/>
+  <dimension ref="A1:K180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127:K127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5804,7 +5831,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>64</v>
       </c>
@@ -5836,7 +5863,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>65</v>
       </c>
@@ -5868,7 +5895,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>66</v>
       </c>
@@ -5900,7 +5927,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>69</v>
       </c>
@@ -5932,7 +5959,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>70</v>
       </c>
@@ -5964,7 +5991,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>146</v>
       </c>
@@ -5996,7 +6023,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>147</v>
       </c>
@@ -6028,7 +6055,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>148</v>
       </c>
@@ -6060,7 +6087,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>169</v>
       </c>
@@ -6092,7 +6119,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>170</v>
       </c>
@@ -6124,7 +6151,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>149</v>
       </c>
@@ -6156,7 +6183,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>67</v>
       </c>
@@ -6188,7 +6215,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>68</v>
       </c>
@@ -6220,7 +6247,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>150</v>
       </c>
@@ -6252,41 +6279,44 @@
         <v>549</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>611</v>
+      </c>
+      <c r="B127" t="s">
+        <v>612</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>209</v>
+      </c>
+      <c r="E127" t="s">
+        <v>613</v>
+      </c>
+      <c r="F127" t="s">
+        <v>614</v>
+      </c>
+      <c r="G127" t="s">
+        <v>615</v>
+      </c>
+      <c r="H127" t="s">
+        <v>616</v>
+      </c>
+      <c r="I127" t="s">
+        <v>617</v>
+      </c>
+      <c r="J127" t="s">
+        <v>618</v>
+      </c>
+      <c r="K127" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>235</v>
-      </c>
-      <c r="B127" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127">
-        <v>1</v>
-      </c>
-      <c r="D127" t="s">
-        <v>215</v>
-      </c>
-      <c r="E127" t="s">
-        <v>495</v>
-      </c>
-      <c r="F127" t="s">
-        <v>399</v>
-      </c>
-      <c r="G127" t="s">
-        <v>400</v>
-      </c>
-      <c r="H127" t="s">
-        <v>401</v>
-      </c>
-      <c r="I127" t="s">
-        <v>402</v>
-      </c>
-      <c r="J127" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>175</v>
       </c>
       <c r="B128" t="s">
         <v>12</v>
@@ -6295,7 +6325,7 @@
         <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E128" t="s">
         <v>495</v>
@@ -6318,7 +6348,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B129" t="s">
         <v>12</v>
@@ -6327,7 +6357,7 @@
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E129" t="s">
         <v>495</v>
@@ -6350,10 +6380,10 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="B130" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -6362,33 +6392,33 @@
         <v>205</v>
       </c>
       <c r="E130" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F130" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G130" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H130" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I130" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="J130" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>239</v>
+        <v>160</v>
       </c>
       <c r="B131" t="s">
         <v>44</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D131" t="s">
         <v>205</v>
@@ -6414,39 +6444,39 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>565</v>
+        <v>239</v>
       </c>
       <c r="B132" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D132" t="s">
         <v>205</v>
       </c>
       <c r="E132" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F132" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="G132" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H132" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I132" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="J132" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>152</v>
+        <v>565</v>
       </c>
       <c r="B133" t="s">
         <v>43</v>
@@ -6470,7 +6500,7 @@
         <v>408</v>
       </c>
       <c r="I133" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="J133" t="s">
         <v>552</v>
@@ -6478,7 +6508,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B134" t="s">
         <v>43</v>
@@ -6510,7 +6540,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B135" t="s">
         <v>43</v>
@@ -6542,7 +6572,7 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B136" t="s">
         <v>43</v>
@@ -6566,7 +6596,7 @@
         <v>408</v>
       </c>
       <c r="I136" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J136" t="s">
         <v>552</v>
@@ -6574,7 +6604,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B137" t="s">
         <v>43</v>
@@ -6606,13 +6636,13 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B138" t="s">
         <v>43</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D138" t="s">
         <v>205</v>
@@ -6638,7 +6668,7 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B139" t="s">
         <v>43</v>
@@ -6670,13 +6700,13 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>609</v>
+        <v>158</v>
       </c>
       <c r="B140" t="s">
         <v>43</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D140" t="s">
         <v>205</v>
@@ -6702,7 +6732,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>159</v>
+        <v>609</v>
       </c>
       <c r="B141" t="s">
         <v>43</v>
@@ -6734,7 +6764,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B142" t="s">
         <v>43</v>
@@ -6758,7 +6788,7 @@
         <v>408</v>
       </c>
       <c r="I142" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="J142" t="s">
         <v>552</v>
@@ -6766,7 +6796,7 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B143" t="s">
         <v>43</v>
@@ -6798,7 +6828,7 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B144" t="s">
         <v>43</v>
@@ -6830,10 +6860,10 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="B145" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -6842,27 +6872,27 @@
         <v>205</v>
       </c>
       <c r="E145" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F145" t="s">
         <v>379</v>
       </c>
       <c r="G145" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H145" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="I145" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="J145" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B146" t="s">
         <v>17</v>
@@ -6871,7 +6901,7 @@
         <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E146" t="s">
         <v>498</v>
@@ -6894,7 +6924,7 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B147" t="s">
         <v>17</v>
@@ -6926,7 +6956,7 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B148" t="s">
         <v>17</v>
@@ -6935,7 +6965,7 @@
         <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E148" t="s">
         <v>498</v>
@@ -6958,7 +6988,7 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B149" t="s">
         <v>17</v>
@@ -6990,7 +7020,7 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>580</v>
+        <v>94</v>
       </c>
       <c r="B150" t="s">
         <v>17</v>
@@ -6999,7 +7029,7 @@
         <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>581</v>
+        <v>205</v>
       </c>
       <c r="E150" t="s">
         <v>498</v>
@@ -7022,7 +7052,7 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B151" t="s">
         <v>17</v>
@@ -7031,7 +7061,7 @@
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E151" t="s">
         <v>498</v>
@@ -7054,7 +7084,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B152" t="s">
         <v>17</v>
@@ -7086,19 +7116,19 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B153" t="s">
         <v>17</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D153" t="s">
-        <v>216</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>596</v>
+        <v>579</v>
+      </c>
+      <c r="E153" t="s">
+        <v>498</v>
       </c>
       <c r="F153" t="s">
         <v>379</v>
@@ -7118,39 +7148,39 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>135</v>
+        <v>582</v>
       </c>
       <c r="B154" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D154" t="s">
-        <v>209</v>
-      </c>
-      <c r="E154" t="s">
-        <v>499</v>
+        <v>216</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>596</v>
       </c>
       <c r="F154" t="s">
-        <v>310</v>
+        <v>379</v>
       </c>
       <c r="G154" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H154" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="I154" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J154" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B155" t="s">
         <v>34</v>
@@ -7159,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E155" t="s">
         <v>499</v>
@@ -7182,39 +7212,39 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="B156" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E156" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F156" t="s">
-        <v>416</v>
+        <v>310</v>
       </c>
       <c r="G156" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H156" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="I156" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J156" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B157" t="s">
         <v>26</v>
@@ -7223,7 +7253,7 @@
         <v>1</v>
       </c>
       <c r="D157" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E157" t="s">
         <v>500</v>
@@ -7246,39 +7276,39 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="B158" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E158" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="F158" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="G158" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H158" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="I158" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J158" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B159" t="s">
         <v>48</v>
@@ -7310,16 +7340,16 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="B160" t="s">
         <v>48</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D160" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="E160" t="s">
         <v>493</v>
@@ -7342,7 +7372,7 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B161" t="s">
         <v>48</v>
@@ -7351,7 +7381,7 @@
         <v>1</v>
       </c>
       <c r="D161" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E161" t="s">
         <v>493</v>
@@ -7374,39 +7404,39 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="B162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E162" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F162" t="s">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="G162" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H162" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I162" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="J162" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B163" t="s">
         <v>49</v>
@@ -7438,50 +7468,50 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B164" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D164" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E164" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F164" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G164" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H164" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I164" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="J164" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B165" t="s">
         <v>47</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D165" t="s">
         <v>205</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="E165" t="s">
         <v>502</v>
       </c>
       <c r="F165" t="s">
@@ -7502,10 +7532,10 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B166" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -7514,59 +7544,59 @@
         <v>205</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>476</v>
+        <v>502</v>
       </c>
       <c r="F166" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G166" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H166" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I166" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="J166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="B167" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>431</v>
       </c>
       <c r="G167" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H167" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="I167" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J167" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B168" t="s">
         <v>28</v>
@@ -7590,7 +7620,7 @@
         <v>436</v>
       </c>
       <c r="I168" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J168" t="s">
         <v>560</v>
@@ -7598,7 +7628,7 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>584</v>
+        <v>123</v>
       </c>
       <c r="B169" t="s">
         <v>28</v>
@@ -7607,7 +7637,7 @@
         <v>1</v>
       </c>
       <c r="D169" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>475</v>
@@ -7622,7 +7652,7 @@
         <v>436</v>
       </c>
       <c r="I169" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J169" t="s">
         <v>560</v>
@@ -7630,50 +7660,50 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>236</v>
+        <v>584</v>
       </c>
       <c r="B170" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>504</v>
+        <v>475</v>
       </c>
       <c r="F170" t="s">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="G170" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H170" t="s">
         <v>436</v>
       </c>
       <c r="I170" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J170" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="B171" t="s">
         <v>52</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D171" t="s">
         <v>205</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E171" s="1" t="s">
         <v>504</v>
       </c>
       <c r="F171" t="s">
@@ -7694,48 +7724,48 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="B172" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C172">
         <v>0</v>
       </c>
       <c r="D172" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E172" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F172" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G172" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H172" t="s">
         <v>436</v>
       </c>
       <c r="I172" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J172" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B173" t="s">
         <v>55</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D173" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E173" t="s">
         <v>505</v>
@@ -7758,95 +7788,95 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="B174" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D174" t="s">
-        <v>207</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>503</v>
+        <v>209</v>
+      </c>
+      <c r="E174" t="s">
+        <v>505</v>
       </c>
       <c r="F174" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G174" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H174" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="I174" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J174" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="B175" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C175">
         <v>0</v>
       </c>
       <c r="D175" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>607</v>
+        <v>503</v>
       </c>
       <c r="F175" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G175" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="H175" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I175" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="J175" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>59</v>
+        <v>202</v>
       </c>
       <c r="B176" t="s">
         <v>1</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D176" t="s">
         <v>206</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="F176" t="s">
         <v>450</v>
       </c>
       <c r="G176" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="H176" t="s">
         <v>452</v>
       </c>
       <c r="I176" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J176" t="s">
         <v>564</v>
@@ -7854,39 +7884,39 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>597</v>
+        <v>59</v>
       </c>
       <c r="B177" t="s">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="F177" t="s">
-        <v>601</v>
+        <v>450</v>
       </c>
       <c r="G177" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="H177" t="s">
-        <v>603</v>
+        <v>452</v>
       </c>
       <c r="I177" t="s">
-        <v>604</v>
+        <v>453</v>
       </c>
       <c r="J177" t="s">
-        <v>606</v>
+        <v>564</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B178" t="s">
         <v>600</v>
@@ -7895,9 +7925,9 @@
         <v>1</v>
       </c>
       <c r="D178" t="s">
-        <v>209</v>
-      </c>
-      <c r="E178" t="s">
+        <v>205</v>
+      </c>
+      <c r="E178" s="1" t="s">
         <v>605</v>
       </c>
       <c r="F178" t="s">
@@ -7918,7 +7948,7 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B179" t="s">
         <v>600</v>
@@ -7945,6 +7975,38 @@
         <v>604</v>
       </c>
       <c r="J179" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>598</v>
+      </c>
+      <c r="B180" t="s">
+        <v>600</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180" t="s">
+        <v>209</v>
+      </c>
+      <c r="E180" t="s">
+        <v>605</v>
+      </c>
+      <c r="F180" t="s">
+        <v>601</v>
+      </c>
+      <c r="G180" t="s">
+        <v>602</v>
+      </c>
+      <c r="H180" t="s">
+        <v>603</v>
+      </c>
+      <c r="I180" t="s">
+        <v>604</v>
+      </c>
+      <c r="J180" t="s">
         <v>606</v>
       </c>
     </row>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB1B946-4711-4D81-87F7-89E263EB1DAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="626">
   <si>
     <t>Aripiprazole</t>
   </si>
@@ -1851,9 +1852,6 @@
     <t>QUITAPEX 400 XR Tab.</t>
   </si>
   <si>
-    <t>RECOMMENDED DOSE</t>
-  </si>
-  <si>
     <t>ORAP FORTE 4mg Tab.</t>
   </si>
   <si>
@@ -1878,13 +1876,34 @@
     <t>QTc interval, EPS, sedation, signs of infection (agranulocytosis), cardiac symptoms (palpitations, syncope)</t>
   </si>
   <si>
-    <t>2–4 mg/day; max 10 mg/day (avoid high doses due to QTc risk)</t>
+    <t>ANEXATE 0.5MG/5ML AMO</t>
+  </si>
+  <si>
+    <t>Flumazenil</t>
+  </si>
+  <si>
+    <t>Benzodiazepine Antagonist (Antidote)</t>
+  </si>
+  <si>
+    <t>Terminal half-life is 40 to 80 minutes (Initial distribution half-life: 4 to 11 minutes)</t>
+  </si>
+  <si>
+    <t>"Nausea", "vomiting", "dizziness", "increased sweating", "headache", "agitation/anxiety", "pain at injection site", "seizures (especially in physically dependent patients or mixed overdose)"</t>
+  </si>
+  <si>
+    <t>"Benzodiazepines (reverses effect)", "Cyclic Antidepressants (Increased risk of seizures and arrhythmias, use is generally contraindicated in suspected overdose)", "Other drugs that can cause seizures or arrhythmias (e.g., chloral hydrate, carbamazepine)"</t>
+  </si>
+  <si>
+    <t>"Close monitoring until risk of resedation has passed (typically 1-2 hours, or longer for large benzodiazepine doses)", "ECG (to rule out QRS prolongation from co-ingested tricyclic antidepressants before use in overdose)"</t>
+  </si>
+  <si>
+    <t>"Resedation and recurrence of respiratory depression (due to Flumazenil's shorter half-life compared to many benzodiazepines)", "Level of consciousness/sedation (e.g., Glasgow Coma Scale)", "Vital signs (especially respiratory rate, blood pressure, and heart rate)", "Signs of precipitated benzodiazepine withdrawal/seizures"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1941,23 +1960,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K180" totalsRowShown="0">
-  <autoFilter ref="A1:K180"/>
-  <sortState ref="A2:J174">
-    <sortCondition ref="B1:B174"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J181" totalsRowShown="0">
+  <autoFilter ref="A1:J181" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J175">
+    <sortCondition ref="B1:B175"/>
   </sortState>
-  <tableColumns count="11">
-    <tableColumn id="1" name="name"/>
-    <tableColumn id="2" name="active"/>
-    <tableColumn id="3" name="available"/>
-    <tableColumn id="8" name="package"/>
-    <tableColumn id="11" name="halfLife"/>
-    <tableColumn id="9" name="category"/>
-    <tableColumn id="4" name="sideEffects"/>
-    <tableColumn id="7" name="interactions"/>
-    <tableColumn id="10" name="important labs"/>
-    <tableColumn id="15" name="monitor"/>
-    <tableColumn id="5" name="RECOMMENDED DOSE"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="active"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="available"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="package"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="halfLife"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="category"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="sideEffects"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="interactions"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="important labs"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="monitor"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2225,11 +2243,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K180"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127:K127"/>
+    <sheetView tabSelected="1" topLeftCell="B60" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2244,7 +2262,7 @@
     <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>241</v>
       </c>
@@ -2275,11 +2293,8 @@
       <c r="J1" t="s">
         <v>506</v>
       </c>
-      <c r="K1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>190</v>
       </c>
@@ -2311,7 +2326,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -2343,7 +2358,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>189</v>
       </c>
@@ -2375,7 +2390,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>191</v>
       </c>
@@ -2407,7 +2422,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>191</v>
       </c>
@@ -2439,7 +2454,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -2471,7 +2486,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -2503,7 +2518,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>192</v>
       </c>
@@ -2535,7 +2550,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>193</v>
       </c>
@@ -2567,7 +2582,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -2599,7 +2614,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -2631,7 +2646,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>171</v>
       </c>
@@ -2663,7 +2678,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>172</v>
       </c>
@@ -2695,7 +2710,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>181</v>
       </c>
@@ -2727,7 +2742,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>182</v>
       </c>
@@ -4457,39 +4472,39 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>197</v>
+        <v>618</v>
       </c>
       <c r="B70" t="s">
-        <v>41</v>
+        <v>619</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E70" t="s">
-        <v>479</v>
+        <v>621</v>
       </c>
       <c r="F70" t="s">
-        <v>310</v>
+        <v>620</v>
       </c>
       <c r="G70" t="s">
-        <v>338</v>
+        <v>622</v>
       </c>
       <c r="H70" t="s">
-        <v>339</v>
+        <v>623</v>
       </c>
       <c r="I70" t="s">
-        <v>337</v>
+        <v>624</v>
       </c>
       <c r="J70" t="s">
-        <v>532</v>
+        <v>625</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="B71" t="s">
         <v>41</v>
@@ -4498,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="E71" t="s">
         <v>479</v>
@@ -4521,7 +4536,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="B72" t="s">
         <v>41</v>
@@ -4530,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E72" t="s">
         <v>479</v>
@@ -4553,71 +4568,71 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="B73" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>206</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>593</v>
+        <v>225</v>
+      </c>
+      <c r="E73" t="s">
+        <v>479</v>
       </c>
       <c r="F73" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="G73" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H73" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I73" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="J73" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>205</v>
-      </c>
-      <c r="E74" t="s">
-        <v>480</v>
+        <v>206</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>593</v>
       </c>
       <c r="F74" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="G74" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H74" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I74" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="J74" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B75" t="s">
         <v>30</v>
@@ -4626,7 +4641,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="E75" t="s">
         <v>480</v>
@@ -4649,39 +4664,39 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>566</v>
+        <v>127</v>
       </c>
       <c r="B76" t="s">
-        <v>567</v>
+        <v>30</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>568</v>
+        <v>227</v>
       </c>
       <c r="E76" t="s">
-        <v>569</v>
+        <v>480</v>
       </c>
       <c r="F76" t="s">
-        <v>570</v>
+        <v>310</v>
       </c>
       <c r="G76" t="s">
-        <v>571</v>
+        <v>343</v>
       </c>
       <c r="H76" t="s">
-        <v>572</v>
+        <v>344</v>
       </c>
       <c r="I76" t="s">
-        <v>573</v>
+        <v>337</v>
       </c>
       <c r="J76" t="s">
-        <v>574</v>
+        <v>534</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="B77" t="s">
         <v>567</v>
@@ -4713,7 +4728,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B78" t="s">
         <v>567</v>
@@ -4745,51 +4760,51 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>61</v>
+        <v>576</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
+        <v>567</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>228</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>591</v>
+        <v>568</v>
+      </c>
+      <c r="E79" t="s">
+        <v>569</v>
       </c>
       <c r="F79" t="s">
-        <v>345</v>
+        <v>570</v>
       </c>
       <c r="G79" t="s">
-        <v>346</v>
+        <v>571</v>
       </c>
       <c r="H79" t="s">
-        <v>347</v>
+        <v>572</v>
       </c>
       <c r="I79" t="s">
-        <v>309</v>
+        <v>573</v>
       </c>
       <c r="J79" t="s">
-        <v>535</v>
+        <v>574</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>207</v>
-      </c>
-      <c r="E80" t="s">
-        <v>481</v>
+        <v>228</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>591</v>
       </c>
       <c r="F80" t="s">
         <v>345</v>
@@ -4809,7 +4824,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
@@ -4841,7 +4856,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
@@ -4850,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="E82" t="s">
         <v>481</v>
@@ -4873,19 +4888,19 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>228</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>591</v>
+        <v>229</v>
+      </c>
+      <c r="E83" t="s">
+        <v>481</v>
       </c>
       <c r="F83" t="s">
         <v>345</v>
@@ -4905,39 +4920,39 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="B84" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>205</v>
-      </c>
-      <c r="E84" t="s">
-        <v>482</v>
+        <v>228</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>591</v>
       </c>
       <c r="F84" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="G84" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H84" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I84" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="J84" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B85" t="s">
         <v>32</v>
@@ -4969,7 +4984,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B86" t="s">
         <v>32</v>
@@ -5001,10 +5016,10 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>587</v>
+        <v>133</v>
       </c>
       <c r="B87" t="s">
-        <v>198</v>
+        <v>32</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -5012,34 +5027,34 @@
       <c r="D87" t="s">
         <v>205</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>590</v>
+      <c r="E87" t="s">
+        <v>482</v>
       </c>
       <c r="F87" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="G87" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H87" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I87" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="J87" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B88" t="s">
         <v>198</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="s">
         <v>205</v>
@@ -5065,10 +5080,10 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>124</v>
+        <v>586</v>
       </c>
       <c r="B89" t="s">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -5076,28 +5091,28 @@
       <c r="D89" t="s">
         <v>205</v>
       </c>
-      <c r="E89" t="s">
-        <v>483</v>
+      <c r="E89" s="1" t="s">
+        <v>590</v>
       </c>
       <c r="F89" t="s">
-        <v>262</v>
+        <v>351</v>
       </c>
       <c r="G89" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H89" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I89" t="s">
-        <v>274</v>
+        <v>354</v>
       </c>
       <c r="J89" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B90" t="s">
         <v>29</v>
@@ -5129,16 +5144,16 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="B91" t="s">
         <v>29</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E91" t="s">
         <v>483</v>
@@ -5161,7 +5176,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B92" t="s">
         <v>29</v>
@@ -5193,80 +5208,80 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="B93" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E93" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F93" t="s">
-        <v>357</v>
+        <v>262</v>
       </c>
       <c r="G93" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H93" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I93" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J93" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B94" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="E94" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F94" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G94" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H94" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I94" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="J94" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B95" t="s">
         <v>27</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="E95" t="s">
         <v>485</v>
@@ -5289,45 +5304,45 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="E96" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F96" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G96" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H96" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I96" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="J96" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="B97" t="s">
         <v>10</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" t="s">
         <v>228</v>
@@ -5353,7 +5368,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B98" t="s">
         <v>10</v>
@@ -5385,39 +5400,39 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="B99" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="E99" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F99" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G99" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H99" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I99" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="J99" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="B100" t="s">
         <v>36</v>
@@ -5426,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E100" t="s">
         <v>487</v>
@@ -5449,10 +5464,10 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="B101" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -5461,59 +5476,59 @@
         <v>207</v>
       </c>
       <c r="E101" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F101" t="s">
-        <v>275</v>
+        <v>368</v>
       </c>
       <c r="G101" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H101" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I101" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J101" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E102" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F102" t="s">
-        <v>375</v>
+        <v>275</v>
       </c>
       <c r="G102" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H102" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I102" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="J102" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="B103" t="s">
         <v>16</v>
@@ -5522,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="D103" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E103" t="s">
         <v>489</v>
@@ -5545,39 +5560,39 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="B104" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D104" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E104" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F104" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G104" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H104" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="I104" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="J104" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B105" t="s">
         <v>39</v>
@@ -5609,16 +5624,16 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>201</v>
+        <v>143</v>
       </c>
       <c r="B106" t="s">
         <v>39</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E106" t="s">
         <v>490</v>
@@ -5641,39 +5656,39 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D107" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E107" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F107" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G107" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H107" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I107" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="J107" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
@@ -5705,16 +5720,16 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>231</v>
+        <v>145</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="E109" t="s">
         <v>491</v>
@@ -5737,7 +5752,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
@@ -5769,45 +5784,45 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>73</v>
+        <v>232</v>
       </c>
       <c r="B111" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="E111" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F111" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="G111" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H111" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I111" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="J111" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>585</v>
+        <v>73</v>
       </c>
       <c r="B112" t="s">
         <v>4</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112" t="s">
         <v>233</v>
@@ -5831,21 +5846,21 @@
         <v>547</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>64</v>
+        <v>585</v>
       </c>
       <c r="B113" t="s">
         <v>4</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113" t="s">
-        <v>216</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>594</v>
+        <v>233</v>
+      </c>
+      <c r="E113" t="s">
+        <v>492</v>
       </c>
       <c r="F113" t="s">
         <v>379</v>
@@ -5857,15 +5872,15 @@
         <v>388</v>
       </c>
       <c r="I113" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="J113" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B114" t="s">
         <v>4</v>
@@ -5895,15 +5910,15 @@
         <v>547</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B115" t="s">
         <v>4</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115" t="s">
         <v>216</v>
@@ -5927,21 +5942,21 @@
         <v>547</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B116" t="s">
         <v>4</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D116" t="s">
         <v>216</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F116" t="s">
         <v>379</v>
@@ -5953,21 +5968,21 @@
         <v>388</v>
       </c>
       <c r="I116" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J116" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B117" t="s">
         <v>4</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117" t="s">
         <v>216</v>
@@ -5991,52 +6006,52 @@
         <v>547</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="B118" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>493</v>
+        <v>595</v>
       </c>
       <c r="F118" t="s">
-        <v>310</v>
+        <v>379</v>
       </c>
       <c r="G118" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="H118" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="I118" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="J118" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B119" t="s">
         <v>40</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D119" t="s">
         <v>205</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="1" t="s">
         <v>493</v>
       </c>
       <c r="F119" t="s">
@@ -6055,15 +6070,15 @@
         <v>548</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B120" t="s">
         <v>40</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120" t="s">
         <v>205</v>
@@ -6087,15 +6102,15 @@
         <v>548</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="B121" t="s">
         <v>40</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D121" t="s">
         <v>205</v>
@@ -6119,9 +6134,9 @@
         <v>548</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B122" t="s">
         <v>40</v>
@@ -6151,41 +6166,41 @@
         <v>548</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>170</v>
+      </c>
+      <c r="B123" t="s">
+        <v>40</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123" t="s">
+        <v>205</v>
+      </c>
+      <c r="E123" t="s">
+        <v>493</v>
+      </c>
+      <c r="F123" t="s">
+        <v>310</v>
+      </c>
+      <c r="G123" t="s">
+        <v>392</v>
+      </c>
+      <c r="H123" t="s">
+        <v>393</v>
+      </c>
+      <c r="I123" t="s">
+        <v>394</v>
+      </c>
+      <c r="J123" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>149</v>
-      </c>
-      <c r="B123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-      <c r="D123" t="s">
-        <v>234</v>
-      </c>
-      <c r="E123" t="s">
-        <v>494</v>
-      </c>
-      <c r="F123" t="s">
-        <v>395</v>
-      </c>
-      <c r="G123" t="s">
-        <v>396</v>
-      </c>
-      <c r="H123" t="s">
-        <v>397</v>
-      </c>
-      <c r="I123" t="s">
-        <v>398</v>
-      </c>
-      <c r="J123" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>67</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
@@ -6194,7 +6209,7 @@
         <v>1</v>
       </c>
       <c r="D124" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E124" t="s">
         <v>494</v>
@@ -6215,9 +6230,9 @@
         <v>549</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
@@ -6226,7 +6241,7 @@
         <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="E125" t="s">
         <v>494</v>
@@ -6247,9 +6262,9 @@
         <v>549</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="B126" t="s">
         <v>5</v>
@@ -6258,7 +6273,7 @@
         <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="E126" t="s">
         <v>494</v>
@@ -6279,76 +6294,73 @@
         <v>549</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>150</v>
+      </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>234</v>
+      </c>
+      <c r="E127" t="s">
+        <v>494</v>
+      </c>
+      <c r="F127" t="s">
+        <v>395</v>
+      </c>
+      <c r="G127" t="s">
+        <v>396</v>
+      </c>
+      <c r="H127" t="s">
+        <v>397</v>
+      </c>
+      <c r="I127" t="s">
+        <v>398</v>
+      </c>
+      <c r="J127" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>610</v>
+      </c>
+      <c r="B128" t="s">
         <v>611</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128" t="s">
+        <v>209</v>
+      </c>
+      <c r="E128" t="s">
         <v>612</v>
       </c>
-      <c r="C127">
-        <v>1</v>
-      </c>
-      <c r="D127" t="s">
-        <v>209</v>
-      </c>
-      <c r="E127" t="s">
+      <c r="F128" t="s">
         <v>613</v>
       </c>
-      <c r="F127" t="s">
+      <c r="G128" t="s">
         <v>614</v>
       </c>
-      <c r="G127" t="s">
+      <c r="H128" t="s">
         <v>615</v>
       </c>
-      <c r="H127" t="s">
+      <c r="I128" t="s">
         <v>616</v>
       </c>
-      <c r="I127" t="s">
+      <c r="J128" t="s">
         <v>617</v>
-      </c>
-      <c r="J127" t="s">
-        <v>618</v>
-      </c>
-      <c r="K127" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>235</v>
-      </c>
-      <c r="B128" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
-      <c r="D128" t="s">
-        <v>215</v>
-      </c>
-      <c r="E128" t="s">
-        <v>495</v>
-      </c>
-      <c r="F128" t="s">
-        <v>399</v>
-      </c>
-      <c r="G128" t="s">
-        <v>400</v>
-      </c>
-      <c r="H128" t="s">
-        <v>401</v>
-      </c>
-      <c r="I128" t="s">
-        <v>402</v>
-      </c>
-      <c r="J128" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="B129" t="s">
         <v>12</v>
@@ -6357,7 +6369,7 @@
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E129" t="s">
         <v>495</v>
@@ -6380,7 +6392,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B130" t="s">
         <v>12</v>
@@ -6389,7 +6401,7 @@
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E130" t="s">
         <v>495</v>
@@ -6412,10 +6424,10 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="B131" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -6424,33 +6436,33 @@
         <v>205</v>
       </c>
       <c r="E131" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F131" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G131" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H131" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I131" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="J131" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>239</v>
+        <v>160</v>
       </c>
       <c r="B132" t="s">
         <v>44</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132" t="s">
         <v>205</v>
@@ -6476,39 +6488,39 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>565</v>
+        <v>239</v>
       </c>
       <c r="B133" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D133" t="s">
         <v>205</v>
       </c>
       <c r="E133" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F133" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="G133" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H133" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I133" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="J133" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>152</v>
+        <v>565</v>
       </c>
       <c r="B134" t="s">
         <v>43</v>
@@ -6532,7 +6544,7 @@
         <v>408</v>
       </c>
       <c r="I134" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="J134" t="s">
         <v>552</v>
@@ -6540,7 +6552,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B135" t="s">
         <v>43</v>
@@ -6572,7 +6584,7 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B136" t="s">
         <v>43</v>
@@ -6604,7 +6616,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B137" t="s">
         <v>43</v>
@@ -6628,7 +6640,7 @@
         <v>408</v>
       </c>
       <c r="I137" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J137" t="s">
         <v>552</v>
@@ -6636,7 +6648,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B138" t="s">
         <v>43</v>
@@ -6668,13 +6680,13 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B139" t="s">
         <v>43</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D139" t="s">
         <v>205</v>
@@ -6700,7 +6712,7 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B140" t="s">
         <v>43</v>
@@ -6732,13 +6744,13 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>609</v>
+        <v>158</v>
       </c>
       <c r="B141" t="s">
         <v>43</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D141" t="s">
         <v>205</v>
@@ -6764,7 +6776,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>159</v>
+        <v>609</v>
       </c>
       <c r="B142" t="s">
         <v>43</v>
@@ -6796,7 +6808,7 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B143" t="s">
         <v>43</v>
@@ -6820,7 +6832,7 @@
         <v>408</v>
       </c>
       <c r="I143" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="J143" t="s">
         <v>552</v>
@@ -6828,7 +6840,7 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B144" t="s">
         <v>43</v>
@@ -6860,7 +6872,7 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B145" t="s">
         <v>43</v>
@@ -6892,10 +6904,10 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="B146" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -6904,27 +6916,27 @@
         <v>205</v>
       </c>
       <c r="E146" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F146" t="s">
         <v>379</v>
       </c>
       <c r="G146" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H146" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="I146" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="J146" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B147" t="s">
         <v>17</v>
@@ -6933,7 +6945,7 @@
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E147" t="s">
         <v>498</v>
@@ -6956,7 +6968,7 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B148" t="s">
         <v>17</v>
@@ -6988,7 +7000,7 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B149" t="s">
         <v>17</v>
@@ -6997,7 +7009,7 @@
         <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E149" t="s">
         <v>498</v>
@@ -7020,7 +7032,7 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B150" t="s">
         <v>17</v>
@@ -7052,7 +7064,7 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>580</v>
+        <v>94</v>
       </c>
       <c r="B151" t="s">
         <v>17</v>
@@ -7061,7 +7073,7 @@
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>581</v>
+        <v>205</v>
       </c>
       <c r="E151" t="s">
         <v>498</v>
@@ -7084,7 +7096,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B152" t="s">
         <v>17</v>
@@ -7093,7 +7105,7 @@
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E152" t="s">
         <v>498</v>
@@ -7116,7 +7128,7 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B153" t="s">
         <v>17</v>
@@ -7148,19 +7160,19 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B154" t="s">
         <v>17</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D154" t="s">
-        <v>216</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>596</v>
+        <v>579</v>
+      </c>
+      <c r="E154" t="s">
+        <v>498</v>
       </c>
       <c r="F154" t="s">
         <v>379</v>
@@ -7180,39 +7192,39 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>135</v>
+        <v>582</v>
       </c>
       <c r="B155" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D155" t="s">
-        <v>209</v>
-      </c>
-      <c r="E155" t="s">
-        <v>499</v>
+        <v>216</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>596</v>
       </c>
       <c r="F155" t="s">
-        <v>310</v>
+        <v>379</v>
       </c>
       <c r="G155" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H155" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="I155" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J155" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B156" t="s">
         <v>34</v>
@@ -7221,7 +7233,7 @@
         <v>1</v>
       </c>
       <c r="D156" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E156" t="s">
         <v>499</v>
@@ -7244,39 +7256,39 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="B157" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E157" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F157" t="s">
-        <v>416</v>
+        <v>310</v>
       </c>
       <c r="G157" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H157" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="I157" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J157" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B158" t="s">
         <v>26</v>
@@ -7285,7 +7297,7 @@
         <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E158" t="s">
         <v>500</v>
@@ -7308,39 +7320,39 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="B159" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E159" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="F159" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="G159" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H159" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="I159" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J159" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B160" t="s">
         <v>48</v>
@@ -7372,16 +7384,16 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="B161" t="s">
         <v>48</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D161" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="E161" t="s">
         <v>493</v>
@@ -7404,7 +7416,7 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B162" t="s">
         <v>48</v>
@@ -7413,7 +7425,7 @@
         <v>1</v>
       </c>
       <c r="D162" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E162" t="s">
         <v>493</v>
@@ -7436,39 +7448,39 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="B163" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E163" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F163" t="s">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="G163" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H163" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I163" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="J163" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B164" t="s">
         <v>49</v>
@@ -7500,50 +7512,50 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B165" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D165" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E165" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F165" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G165" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H165" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I165" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="J165" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B166" t="s">
         <v>47</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D166" t="s">
         <v>205</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="E166" t="s">
         <v>502</v>
       </c>
       <c r="F166" t="s">
@@ -7564,10 +7576,10 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B167" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -7576,59 +7588,59 @@
         <v>205</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>476</v>
+        <v>502</v>
       </c>
       <c r="F167" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G167" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H167" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I167" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="J167" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="B168" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F168" t="s">
-        <v>320</v>
+        <v>431</v>
       </c>
       <c r="G168" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H168" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="I168" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J168" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B169" t="s">
         <v>28</v>
@@ -7652,7 +7664,7 @@
         <v>436</v>
       </c>
       <c r="I169" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J169" t="s">
         <v>560</v>
@@ -7660,7 +7672,7 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>584</v>
+        <v>123</v>
       </c>
       <c r="B170" t="s">
         <v>28</v>
@@ -7669,7 +7681,7 @@
         <v>1</v>
       </c>
       <c r="D170" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>475</v>
@@ -7684,7 +7696,7 @@
         <v>436</v>
       </c>
       <c r="I170" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J170" t="s">
         <v>560</v>
@@ -7692,50 +7704,50 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>236</v>
+        <v>584</v>
       </c>
       <c r="B171" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>504</v>
+        <v>475</v>
       </c>
       <c r="F171" t="s">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="G171" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H171" t="s">
         <v>436</v>
       </c>
       <c r="I171" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J171" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="B172" t="s">
         <v>52</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D172" t="s">
         <v>205</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E172" s="1" t="s">
         <v>504</v>
       </c>
       <c r="F172" t="s">
@@ -7756,48 +7768,48 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="B173" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C173">
         <v>0</v>
       </c>
       <c r="D173" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E173" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F173" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G173" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H173" t="s">
         <v>436</v>
       </c>
       <c r="I173" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J173" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B174" t="s">
         <v>55</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D174" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E174" t="s">
         <v>505</v>
@@ -7820,95 +7832,95 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="B175" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D175" t="s">
-        <v>207</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>503</v>
+        <v>209</v>
+      </c>
+      <c r="E175" t="s">
+        <v>505</v>
       </c>
       <c r="F175" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G175" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H175" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="I175" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J175" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="B176" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C176">
         <v>0</v>
       </c>
       <c r="D176" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>607</v>
+        <v>503</v>
       </c>
       <c r="F176" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G176" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="H176" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I176" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="J176" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>59</v>
+        <v>202</v>
       </c>
       <c r="B177" t="s">
         <v>1</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D177" t="s">
         <v>206</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="F177" t="s">
         <v>450</v>
       </c>
       <c r="G177" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="H177" t="s">
         <v>452</v>
       </c>
       <c r="I177" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J177" t="s">
         <v>564</v>
@@ -7916,39 +7928,39 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>597</v>
+        <v>59</v>
       </c>
       <c r="B178" t="s">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="F178" t="s">
-        <v>601</v>
+        <v>450</v>
       </c>
       <c r="G178" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="H178" t="s">
-        <v>603</v>
+        <v>452</v>
       </c>
       <c r="I178" t="s">
-        <v>604</v>
+        <v>453</v>
       </c>
       <c r="J178" t="s">
-        <v>606</v>
+        <v>564</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B179" t="s">
         <v>600</v>
@@ -7957,9 +7969,9 @@
         <v>1</v>
       </c>
       <c r="D179" t="s">
-        <v>209</v>
-      </c>
-      <c r="E179" t="s">
+        <v>205</v>
+      </c>
+      <c r="E179" s="1" t="s">
         <v>605</v>
       </c>
       <c r="F179" t="s">
@@ -7980,7 +7992,7 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B180" t="s">
         <v>600</v>
@@ -8007,6 +8019,38 @@
         <v>604</v>
       </c>
       <c r="J180" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>598</v>
+      </c>
+      <c r="B181" t="s">
+        <v>600</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181" t="s">
+        <v>209</v>
+      </c>
+      <c r="E181" t="s">
+        <v>605</v>
+      </c>
+      <c r="F181" t="s">
+        <v>601</v>
+      </c>
+      <c r="G181" t="s">
+        <v>602</v>
+      </c>
+      <c r="H181" t="s">
+        <v>603</v>
+      </c>
+      <c r="I181" t="s">
+        <v>604</v>
+      </c>
+      <c r="J181" t="s">
         <v>606</v>
       </c>
     </row>
